--- a/storm32/BLDC.xlsx
+++ b/storm32/BLDC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3317,10 +3313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR240"/>
+  <dimension ref="A1:AY240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AP9" sqref="AP9"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AW1" sqref="AW1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3329,7 +3325,7 @@
     <col min="6" max="6" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>128</v>
       </c>
@@ -3417,8 +3413,31 @@
         <f>AQ1&amp;","</f>
         <v>237,</v>
       </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AT1">
+        <v>1</v>
+      </c>
+      <c r="AU1">
+        <f>AT1/100*2*PI()</f>
+        <v>6.2831853071795868E-2</v>
+      </c>
+      <c r="AV1">
+        <f>SIN(AU1)</f>
+        <v>6.2790519529313374E-2</v>
+      </c>
+      <c r="AW1">
+        <f>(AV1+1)*255/2</f>
+        <v>135.50579123998747</v>
+      </c>
+      <c r="AX1">
+        <f>FLOOR(AW1, 1)</f>
+        <v>135</v>
+      </c>
+      <c r="AY1" t="str">
+        <f>AX1&amp;","</f>
+        <v>135,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>147</v>
       </c>
@@ -3464,23 +3483,23 @@
         <v>2</v>
       </c>
       <c r="AG2">
-        <f t="shared" ref="AG2:AG25" si="8">AF2/12*2*PI()</f>
+        <f t="shared" ref="AG2:AG12" si="8">AF2/12*2*PI()</f>
         <v>1.0471975511965976</v>
       </c>
       <c r="AH2">
-        <f t="shared" ref="AH2:AH25" si="9">SIN(AG2)</f>
+        <f t="shared" ref="AH2:AH12" si="9">SIN(AG2)</f>
         <v>0.8660254037844386</v>
       </c>
       <c r="AI2">
-        <f t="shared" ref="AI2:AI25" si="10">(AH2+1)*255/2</f>
+        <f t="shared" ref="AI2:AI12" si="10">(AH2+1)*255/2</f>
         <v>237.91823898251593</v>
       </c>
       <c r="AJ2">
-        <f t="shared" ref="AJ2:AJ25" si="11">FLOOR(AI2, 1)</f>
+        <f t="shared" ref="AJ2:AJ12" si="11">FLOOR(AI2, 1)</f>
         <v>237</v>
       </c>
       <c r="AK2" t="str">
-        <f t="shared" ref="AK2:AK25" si="12">AJ2&amp;","</f>
+        <f t="shared" ref="AK2:AK12" si="12">AJ2&amp;","</f>
         <v>237,</v>
       </c>
       <c r="AM2">
@@ -3506,8 +3525,31 @@
         <f t="shared" ref="AR2:AR6" si="17">AQ2&amp;","</f>
         <v>237,</v>
       </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AT2">
+        <v>2</v>
+      </c>
+      <c r="AU2">
+        <f t="shared" ref="AU2:AU65" si="18">AT2/100*2*PI()</f>
+        <v>0.12566370614359174</v>
+      </c>
+      <c r="AV2">
+        <f t="shared" ref="AV2:AV65" si="19">SIN(AU2)</f>
+        <v>0.12533323356430426</v>
+      </c>
+      <c r="AW2">
+        <f t="shared" ref="AW2:AW65" si="20">(AV2+1)*255/2</f>
+        <v>143.47998727944881</v>
+      </c>
+      <c r="AX2">
+        <f t="shared" ref="AX2:AX65" si="21">FLOOR(AW2, 1)</f>
+        <v>143</v>
+      </c>
+      <c r="AY2" t="str">
+        <f t="shared" ref="AY2:AY65" si="22">AX2&amp;","</f>
+        <v>143,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>166</v>
       </c>
@@ -3595,8 +3637,31 @@
         <f t="shared" si="17"/>
         <v>127,</v>
       </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AT3">
+        <v>3</v>
+      </c>
+      <c r="AU3">
+        <f t="shared" si="18"/>
+        <v>0.18849555921538758</v>
+      </c>
+      <c r="AV3">
+        <f t="shared" si="19"/>
+        <v>0.1873813145857246</v>
+      </c>
+      <c r="AW3">
+        <f t="shared" si="20"/>
+        <v>151.3911176096799</v>
+      </c>
+      <c r="AX3">
+        <f t="shared" si="21"/>
+        <v>151</v>
+      </c>
+      <c r="AY3" t="str">
+        <f t="shared" si="22"/>
+        <v>151,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>185</v>
       </c>
@@ -3684,8 +3749,31 @@
         <f t="shared" si="17"/>
         <v>17,</v>
       </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AT4">
+        <v>4</v>
+      </c>
+      <c r="AU4">
+        <f t="shared" si="18"/>
+        <v>0.25132741228718347</v>
+      </c>
+      <c r="AV4">
+        <f t="shared" si="19"/>
+        <v>0.24868988716485479</v>
+      </c>
+      <c r="AW4">
+        <f t="shared" si="20"/>
+        <v>159.20796061351899</v>
+      </c>
+      <c r="AX4">
+        <f t="shared" si="21"/>
+        <v>159</v>
+      </c>
+      <c r="AY4" t="str">
+        <f t="shared" si="22"/>
+        <v>159,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>203</v>
       </c>
@@ -3773,8 +3861,31 @@
         <f t="shared" si="17"/>
         <v>17,</v>
       </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AT5">
+        <v>5</v>
+      </c>
+      <c r="AU5">
+        <f t="shared" si="18"/>
+        <v>0.31415926535897931</v>
+      </c>
+      <c r="AV5">
+        <f t="shared" si="19"/>
+        <v>0.3090169943749474</v>
+      </c>
+      <c r="AW5">
+        <f t="shared" si="20"/>
+        <v>166.89966678280581</v>
+      </c>
+      <c r="AX5">
+        <f t="shared" si="21"/>
+        <v>166</v>
+      </c>
+      <c r="AY5" t="str">
+        <f t="shared" si="22"/>
+        <v>166,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>221</v>
       </c>
@@ -3862,8 +3973,31 @@
         <f t="shared" si="17"/>
         <v>127,</v>
       </c>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AT6">
+        <v>6</v>
+      </c>
+      <c r="AU6">
+        <f t="shared" si="18"/>
+        <v>0.37699111843077515</v>
+      </c>
+      <c r="AV6">
+        <f t="shared" si="19"/>
+        <v>0.36812455268467792</v>
+      </c>
+      <c r="AW6">
+        <f t="shared" si="20"/>
+        <v>174.43588046729644</v>
+      </c>
+      <c r="AX6">
+        <f t="shared" si="21"/>
+        <v>174</v>
+      </c>
+      <c r="AY6" t="str">
+        <f t="shared" si="22"/>
+        <v>174,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>238</v>
       </c>
@@ -3928,8 +4062,31 @@
         <f t="shared" si="12"/>
         <v>63,</v>
       </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AT7">
+        <v>7</v>
+      </c>
+      <c r="AU7">
+        <f t="shared" si="18"/>
+        <v>0.4398229715025711</v>
+      </c>
+      <c r="AV7">
+        <f t="shared" si="19"/>
+        <v>0.42577929156507272</v>
+      </c>
+      <c r="AW7">
+        <f t="shared" si="20"/>
+        <v>181.78685967454678</v>
+      </c>
+      <c r="AX7">
+        <f t="shared" si="21"/>
+        <v>181</v>
+      </c>
+      <c r="AY7" t="str">
+        <f t="shared" si="22"/>
+        <v>181,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>243</v>
       </c>
@@ -3994,8 +4151,31 @@
         <f t="shared" si="12"/>
         <v>17,</v>
       </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AT8">
+        <v>8</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" si="18"/>
+        <v>0.50265482457436694</v>
+      </c>
+      <c r="AV8">
+        <f t="shared" si="19"/>
+        <v>0.48175367410171532</v>
+      </c>
+      <c r="AW8">
+        <f t="shared" si="20"/>
+        <v>188.9235934479687</v>
+      </c>
+      <c r="AX8">
+        <f t="shared" si="21"/>
+        <v>188</v>
+      </c>
+      <c r="AY8" t="str">
+        <f t="shared" si="22"/>
+        <v>188,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>248</v>
       </c>
@@ -4060,8 +4240,31 @@
         <f t="shared" si="12"/>
         <v>0,</v>
       </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AT9">
+        <v>9</v>
+      </c>
+      <c r="AU9">
+        <f t="shared" si="18"/>
+        <v>0.56548667764616278</v>
+      </c>
+      <c r="AV9">
+        <f t="shared" si="19"/>
+        <v>0.53582679497899666</v>
+      </c>
+      <c r="AW9">
+        <f t="shared" si="20"/>
+        <v>195.81791635982205</v>
+      </c>
+      <c r="AX9">
+        <f t="shared" si="21"/>
+        <v>195</v>
+      </c>
+      <c r="AY9" t="str">
+        <f t="shared" si="22"/>
+        <v>195,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>251</v>
       </c>
@@ -4126,8 +4329,31 @@
         <f t="shared" si="12"/>
         <v>17,</v>
       </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AT10">
+        <v>10</v>
+      </c>
+      <c r="AU10">
+        <f t="shared" si="18"/>
+        <v>0.62831853071795862</v>
+      </c>
+      <c r="AV10">
+        <f t="shared" si="19"/>
+        <v>0.58778525229247314</v>
+      </c>
+      <c r="AW10">
+        <f t="shared" si="20"/>
+        <v>202.44261966729033</v>
+      </c>
+      <c r="AX10">
+        <f t="shared" si="21"/>
+        <v>202</v>
+      </c>
+      <c r="AY10" t="str">
+        <f t="shared" si="22"/>
+        <v>202,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>253</v>
       </c>
@@ -4192,8 +4418,31 @@
         <f t="shared" si="12"/>
         <v>63,</v>
       </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AT11">
+        <v>11</v>
+      </c>
+      <c r="AU11">
+        <f t="shared" si="18"/>
+        <v>0.69115038378975446</v>
+      </c>
+      <c r="AV11">
+        <f t="shared" si="19"/>
+        <v>0.63742398974868963</v>
+      </c>
+      <c r="AW11">
+        <f t="shared" si="20"/>
+        <v>208.77155869295794</v>
+      </c>
+      <c r="AX11">
+        <f t="shared" si="21"/>
+        <v>208</v>
+      </c>
+      <c r="AY11" t="str">
+        <f t="shared" si="22"/>
+        <v>208,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>255</v>
       </c>
@@ -4258,8 +4507,31 @@
         <f t="shared" si="12"/>
         <v>127,</v>
       </c>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AT12">
+        <v>12</v>
+      </c>
+      <c r="AU12">
+        <f t="shared" si="18"/>
+        <v>0.7539822368615503</v>
+      </c>
+      <c r="AV12">
+        <f t="shared" si="19"/>
+        <v>0.68454710592868862</v>
+      </c>
+      <c r="AW12">
+        <f t="shared" si="20"/>
+        <v>214.77975600590781</v>
+      </c>
+      <c r="AX12">
+        <f t="shared" si="21"/>
+        <v>214</v>
+      </c>
+      <c r="AY12" t="str">
+        <f t="shared" si="22"/>
+        <v>214,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>255</v>
       </c>
@@ -4301,8 +4573,31 @@
         <f t="shared" si="7"/>
         <v>133,</v>
       </c>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AT13">
+        <v>13</v>
+      </c>
+      <c r="AU13">
+        <f t="shared" si="18"/>
+        <v>0.81681408993334625</v>
+      </c>
+      <c r="AV13">
+        <f t="shared" si="19"/>
+        <v>0.72896862742141155</v>
+      </c>
+      <c r="AW13">
+        <f t="shared" si="20"/>
+        <v>220.44349999622997</v>
+      </c>
+      <c r="AX13">
+        <f t="shared" si="21"/>
+        <v>220</v>
+      </c>
+      <c r="AY13" t="str">
+        <f t="shared" si="22"/>
+        <v>220,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>255</v>
       </c>
@@ -4344,8 +4639,31 @@
         <f t="shared" si="7"/>
         <v>135,</v>
       </c>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AT14">
+        <v>14</v>
+      </c>
+      <c r="AU14">
+        <f t="shared" si="18"/>
+        <v>0.87964594300514221</v>
+      </c>
+      <c r="AV14">
+        <f t="shared" si="19"/>
+        <v>0.77051324277578925</v>
+      </c>
+      <c r="AW14">
+        <f t="shared" si="20"/>
+        <v>225.74043845391313</v>
+      </c>
+      <c r="AX14">
+        <f t="shared" si="21"/>
+        <v>225</v>
+      </c>
+      <c r="AY14" t="str">
+        <f t="shared" si="22"/>
+        <v>225,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>253</v>
       </c>
@@ -4387,8 +4705,31 @@
         <f t="shared" si="7"/>
         <v>138,</v>
       </c>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="AT15">
+        <v>15</v>
+      </c>
+      <c r="AU15">
+        <f t="shared" si="18"/>
+        <v>0.94247779607693793</v>
+      </c>
+      <c r="AV15">
+        <f t="shared" si="19"/>
+        <v>0.80901699437494745</v>
+      </c>
+      <c r="AW15">
+        <f t="shared" si="20"/>
+        <v>230.64966678280581</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="21"/>
+        <v>230</v>
+      </c>
+      <c r="AY15" t="str">
+        <f t="shared" si="22"/>
+        <v>230,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>251</v>
       </c>
@@ -4430,8 +4771,31 @@
         <f t="shared" si="7"/>
         <v>140,</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT16">
+        <v>16</v>
+      </c>
+      <c r="AU16">
+        <f t="shared" si="18"/>
+        <v>1.0053096491487339</v>
+      </c>
+      <c r="AV16">
+        <f t="shared" si="19"/>
+        <v>0.84432792550201508</v>
+      </c>
+      <c r="AW16">
+        <f t="shared" si="20"/>
+        <v>235.15181050150693</v>
+      </c>
+      <c r="AX16">
+        <f t="shared" si="21"/>
+        <v>235</v>
+      </c>
+      <c r="AY16" t="str">
+        <f t="shared" si="22"/>
+        <v>235,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>248</v>
       </c>
@@ -4473,8 +4837,31 @@
         <f t="shared" si="7"/>
         <v>143,</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT17">
+        <v>17</v>
+      </c>
+      <c r="AU17">
+        <f t="shared" si="18"/>
+        <v>1.0681415022205298</v>
+      </c>
+      <c r="AV17">
+        <f t="shared" si="19"/>
+        <v>0.87630668004386369</v>
+      </c>
+      <c r="AW17">
+        <f t="shared" si="20"/>
+        <v>239.22910170559263</v>
+      </c>
+      <c r="AX17">
+        <f t="shared" si="21"/>
+        <v>239</v>
+      </c>
+      <c r="AY17" t="str">
+        <f t="shared" si="22"/>
+        <v>239,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>243</v>
       </c>
@@ -4516,8 +4903,31 @@
         <f t="shared" si="7"/>
         <v>145,</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT18">
+        <v>18</v>
+      </c>
+      <c r="AU18">
+        <f t="shared" si="18"/>
+        <v>1.1309733552923256</v>
+      </c>
+      <c r="AV18">
+        <f t="shared" si="19"/>
+        <v>0.90482705246601958</v>
+      </c>
+      <c r="AW18">
+        <f t="shared" si="20"/>
+        <v>242.86544918941749</v>
+      </c>
+      <c r="AX18">
+        <f t="shared" si="21"/>
+        <v>242</v>
+      </c>
+      <c r="AY18" t="str">
+        <f t="shared" si="22"/>
+        <v>242,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>238</v>
       </c>
@@ -4559,8 +4969,31 @@
         <f t="shared" si="7"/>
         <v>147,</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT19">
+        <v>19</v>
+      </c>
+      <c r="AU19">
+        <f t="shared" si="18"/>
+        <v>1.1938052083641213</v>
+      </c>
+      <c r="AV19">
+        <f t="shared" si="19"/>
+        <v>0.92977648588825135</v>
+      </c>
+      <c r="AW19">
+        <f t="shared" si="20"/>
+        <v>246.04650195075206</v>
+      </c>
+      <c r="AX19">
+        <f t="shared" si="21"/>
+        <v>246</v>
+      </c>
+      <c r="AY19" t="str">
+        <f t="shared" si="22"/>
+        <v>246,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>243</v>
       </c>
@@ -4602,8 +5035,31 @@
         <f t="shared" si="7"/>
         <v>150,</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT20">
+        <v>20</v>
+      </c>
+      <c r="AU20">
+        <f t="shared" si="18"/>
+        <v>1.2566370614359172</v>
+      </c>
+      <c r="AV20">
+        <f t="shared" si="19"/>
+        <v>0.95105651629515353</v>
+      </c>
+      <c r="AW20">
+        <f t="shared" si="20"/>
+        <v>248.7597058276321</v>
+      </c>
+      <c r="AX20">
+        <f t="shared" si="21"/>
+        <v>248</v>
+      </c>
+      <c r="AY20" t="str">
+        <f t="shared" si="22"/>
+        <v>248,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>248</v>
       </c>
@@ -4645,8 +5101,31 @@
         <f t="shared" si="7"/>
         <v>152,</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT21">
+        <v>21</v>
+      </c>
+      <c r="AU21">
+        <f t="shared" si="18"/>
+        <v>1.319468914507713</v>
+      </c>
+      <c r="AV21">
+        <f t="shared" si="19"/>
+        <v>0.96858316112863108</v>
+      </c>
+      <c r="AW21">
+        <f t="shared" si="20"/>
+        <v>250.99435304390047</v>
+      </c>
+      <c r="AX21">
+        <f t="shared" si="21"/>
+        <v>250</v>
+      </c>
+      <c r="AY21" t="str">
+        <f t="shared" si="22"/>
+        <v>250,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>251</v>
       </c>
@@ -4688,8 +5167,31 @@
         <f t="shared" si="7"/>
         <v>154,</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT22">
+        <v>22</v>
+      </c>
+      <c r="AU22">
+        <f t="shared" si="18"/>
+        <v>1.3823007675795089</v>
+      </c>
+      <c r="AV22">
+        <f t="shared" si="19"/>
+        <v>0.98228725072868861</v>
+      </c>
+      <c r="AW22">
+        <f t="shared" si="20"/>
+        <v>252.7416244679078</v>
+      </c>
+      <c r="AX22">
+        <f t="shared" si="21"/>
+        <v>252</v>
+      </c>
+      <c r="AY22" t="str">
+        <f t="shared" si="22"/>
+        <v>252,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>253</v>
       </c>
@@ -4731,8 +5233,31 @@
         <f t="shared" si="7"/>
         <v>156,</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT23">
+        <v>23</v>
+      </c>
+      <c r="AU23">
+        <f t="shared" si="18"/>
+        <v>1.4451326206513049</v>
+      </c>
+      <c r="AV23">
+        <f t="shared" si="19"/>
+        <v>0.99211470131447788</v>
+      </c>
+      <c r="AW23">
+        <f t="shared" si="20"/>
+        <v>253.99462441759593</v>
+      </c>
+      <c r="AX23">
+        <f t="shared" si="21"/>
+        <v>253</v>
+      </c>
+      <c r="AY23" t="str">
+        <f t="shared" si="22"/>
+        <v>253,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>255</v>
       </c>
@@ -4774,8 +5299,31 @@
         <f t="shared" si="7"/>
         <v>158,</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT24">
+        <v>24</v>
+      </c>
+      <c r="AU24">
+        <f t="shared" si="18"/>
+        <v>1.5079644737231006</v>
+      </c>
+      <c r="AV24">
+        <f t="shared" si="19"/>
+        <v>0.99802672842827156</v>
+      </c>
+      <c r="AW24">
+        <f t="shared" si="20"/>
+        <v>254.74840787460462</v>
+      </c>
+      <c r="AX24">
+        <f t="shared" si="21"/>
+        <v>254</v>
+      </c>
+      <c r="AY24" t="str">
+        <f t="shared" si="22"/>
+        <v>254,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>255</v>
       </c>
@@ -4817,8 +5365,31 @@
         <f t="shared" si="7"/>
         <v>160,</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT25">
+        <v>25</v>
+      </c>
+      <c r="AU25">
+        <f t="shared" si="18"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="AV25">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AW25">
+        <f t="shared" si="20"/>
+        <v>255</v>
+      </c>
+      <c r="AX25">
+        <f t="shared" si="21"/>
+        <v>255</v>
+      </c>
+      <c r="AY25" t="str">
+        <f t="shared" si="22"/>
+        <v>255,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>255</v>
       </c>
@@ -4860,8 +5431,31 @@
         <f t="shared" si="7"/>
         <v>162,</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT26">
+        <v>26</v>
+      </c>
+      <c r="AU26">
+        <f t="shared" si="18"/>
+        <v>1.6336281798666925</v>
+      </c>
+      <c r="AV26">
+        <f t="shared" si="19"/>
+        <v>0.99802672842827156</v>
+      </c>
+      <c r="AW26">
+        <f t="shared" si="20"/>
+        <v>254.74840787460462</v>
+      </c>
+      <c r="AX26">
+        <f t="shared" si="21"/>
+        <v>254</v>
+      </c>
+      <c r="AY26" t="str">
+        <f t="shared" si="22"/>
+        <v>254,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>253</v>
       </c>
@@ -4903,8 +5497,31 @@
         <f t="shared" si="7"/>
         <v>164,</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT27">
+        <v>27</v>
+      </c>
+      <c r="AU27">
+        <f t="shared" si="18"/>
+        <v>1.6964600329384885</v>
+      </c>
+      <c r="AV27">
+        <f t="shared" si="19"/>
+        <v>0.99211470131447776</v>
+      </c>
+      <c r="AW27">
+        <f t="shared" si="20"/>
+        <v>253.9946244175959</v>
+      </c>
+      <c r="AX27">
+        <f t="shared" si="21"/>
+        <v>253</v>
+      </c>
+      <c r="AY27" t="str">
+        <f t="shared" si="22"/>
+        <v>253,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>251</v>
       </c>
@@ -4946,8 +5563,31 @@
         <f t="shared" si="7"/>
         <v>166,</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT28">
+        <v>28</v>
+      </c>
+      <c r="AU28">
+        <f t="shared" si="18"/>
+        <v>1.7592918860102844</v>
+      </c>
+      <c r="AV28">
+        <f t="shared" si="19"/>
+        <v>0.98228725072868861</v>
+      </c>
+      <c r="AW28">
+        <f t="shared" si="20"/>
+        <v>252.7416244679078</v>
+      </c>
+      <c r="AX28">
+        <f t="shared" si="21"/>
+        <v>252</v>
+      </c>
+      <c r="AY28" t="str">
+        <f t="shared" si="22"/>
+        <v>252,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>248</v>
       </c>
@@ -4989,8 +5629,31 @@
         <f t="shared" si="7"/>
         <v>168,</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT29">
+        <v>29</v>
+      </c>
+      <c r="AU29">
+        <f t="shared" si="18"/>
+        <v>1.8221237390820799</v>
+      </c>
+      <c r="AV29">
+        <f t="shared" si="19"/>
+        <v>0.96858316112863119</v>
+      </c>
+      <c r="AW29">
+        <f t="shared" si="20"/>
+        <v>250.99435304390047</v>
+      </c>
+      <c r="AX29">
+        <f t="shared" si="21"/>
+        <v>250</v>
+      </c>
+      <c r="AY29" t="str">
+        <f t="shared" si="22"/>
+        <v>250,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>243</v>
       </c>
@@ -5032,8 +5695,31 @@
         <f t="shared" si="7"/>
         <v>170,</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT30">
+        <v>30</v>
+      </c>
+      <c r="AU30">
+        <f t="shared" si="18"/>
+        <v>1.8849555921538759</v>
+      </c>
+      <c r="AV30">
+        <f t="shared" si="19"/>
+        <v>0.95105651629515364</v>
+      </c>
+      <c r="AW30">
+        <f t="shared" si="20"/>
+        <v>248.7597058276321</v>
+      </c>
+      <c r="AX30">
+        <f t="shared" si="21"/>
+        <v>248</v>
+      </c>
+      <c r="AY30" t="str">
+        <f t="shared" si="22"/>
+        <v>248,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>238</v>
       </c>
@@ -5060,8 +5746,31 @@
         <f t="shared" si="7"/>
         <v>172,</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT31">
+        <v>31</v>
+      </c>
+      <c r="AU31">
+        <f t="shared" si="18"/>
+        <v>1.9477874452256718</v>
+      </c>
+      <c r="AV31">
+        <f t="shared" si="19"/>
+        <v>0.92977648588825135</v>
+      </c>
+      <c r="AW31">
+        <f t="shared" si="20"/>
+        <v>246.04650195075206</v>
+      </c>
+      <c r="AX31">
+        <f t="shared" si="21"/>
+        <v>246</v>
+      </c>
+      <c r="AY31" t="str">
+        <f t="shared" si="22"/>
+        <v>246,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>221</v>
       </c>
@@ -5088,8 +5797,31 @@
         <f t="shared" si="7"/>
         <v>174,</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT32">
+        <v>32</v>
+      </c>
+      <c r="AU32">
+        <f t="shared" si="18"/>
+        <v>2.0106192982974678</v>
+      </c>
+      <c r="AV32">
+        <f t="shared" si="19"/>
+        <v>0.90482705246601947</v>
+      </c>
+      <c r="AW32">
+        <f t="shared" si="20"/>
+        <v>242.86544918941749</v>
+      </c>
+      <c r="AX32">
+        <f t="shared" si="21"/>
+        <v>242</v>
+      </c>
+      <c r="AY32" t="str">
+        <f t="shared" si="22"/>
+        <v>242,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>203</v>
       </c>
@@ -5116,8 +5848,31 @@
         <f t="shared" si="7"/>
         <v>176,</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT33">
+        <v>33</v>
+      </c>
+      <c r="AU33">
+        <f t="shared" si="18"/>
+        <v>2.0734511513692637</v>
+      </c>
+      <c r="AV33">
+        <f t="shared" si="19"/>
+        <v>0.87630668004386347</v>
+      </c>
+      <c r="AW33">
+        <f t="shared" si="20"/>
+        <v>239.2291017055926</v>
+      </c>
+      <c r="AX33">
+        <f t="shared" si="21"/>
+        <v>239</v>
+      </c>
+      <c r="AY33" t="str">
+        <f t="shared" si="22"/>
+        <v>239,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>185</v>
       </c>
@@ -5144,8 +5899,31 @@
         <f t="shared" si="7"/>
         <v>177,</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT34">
+        <v>34</v>
+      </c>
+      <c r="AU34">
+        <f t="shared" si="18"/>
+        <v>2.1362830044410597</v>
+      </c>
+      <c r="AV34">
+        <f t="shared" si="19"/>
+        <v>0.84432792550201496</v>
+      </c>
+      <c r="AW34">
+        <f t="shared" si="20"/>
+        <v>235.1518105015069</v>
+      </c>
+      <c r="AX34">
+        <f t="shared" si="21"/>
+        <v>235</v>
+      </c>
+      <c r="AY34" t="str">
+        <f t="shared" si="22"/>
+        <v>235,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>166</v>
       </c>
@@ -5172,8 +5950,31 @@
         <f t="shared" si="7"/>
         <v>179,</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT35">
+        <v>35</v>
+      </c>
+      <c r="AU35">
+        <f t="shared" si="18"/>
+        <v>2.1991148575128552</v>
+      </c>
+      <c r="AV35">
+        <f t="shared" si="19"/>
+        <v>0.80901699437494745</v>
+      </c>
+      <c r="AW35">
+        <f t="shared" si="20"/>
+        <v>230.64966678280581</v>
+      </c>
+      <c r="AX35">
+        <f t="shared" si="21"/>
+        <v>230</v>
+      </c>
+      <c r="AY35" t="str">
+        <f t="shared" si="22"/>
+        <v>230,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>147</v>
       </c>
@@ -5200,8 +6001,31 @@
         <f t="shared" si="7"/>
         <v>180,</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT36">
+        <v>36</v>
+      </c>
+      <c r="AU36">
+        <f t="shared" si="18"/>
+        <v>2.2619467105846511</v>
+      </c>
+      <c r="AV36">
+        <f t="shared" si="19"/>
+        <v>0.77051324277578925</v>
+      </c>
+      <c r="AW36">
+        <f t="shared" si="20"/>
+        <v>225.74043845391313</v>
+      </c>
+      <c r="AX36">
+        <f t="shared" si="21"/>
+        <v>225</v>
+      </c>
+      <c r="AY36" t="str">
+        <f t="shared" si="22"/>
+        <v>225,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>128</v>
       </c>
@@ -5228,8 +6052,31 @@
         <f t="shared" si="7"/>
         <v>182,</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT37">
+        <v>37</v>
+      </c>
+      <c r="AU37">
+        <f t="shared" si="18"/>
+        <v>2.3247785636564471</v>
+      </c>
+      <c r="AV37">
+        <f t="shared" si="19"/>
+        <v>0.72896862742141144</v>
+      </c>
+      <c r="AW37">
+        <f t="shared" si="20"/>
+        <v>220.44349999622995</v>
+      </c>
+      <c r="AX37">
+        <f t="shared" si="21"/>
+        <v>220</v>
+      </c>
+      <c r="AY37" t="str">
+        <f t="shared" si="22"/>
+        <v>220,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>109</v>
       </c>
@@ -5256,8 +6103,31 @@
         <f t="shared" si="7"/>
         <v>183,</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT38">
+        <v>38</v>
+      </c>
+      <c r="AU38">
+        <f t="shared" si="18"/>
+        <v>2.3876104167282426</v>
+      </c>
+      <c r="AV38">
+        <f t="shared" si="19"/>
+        <v>0.68454710592868884</v>
+      </c>
+      <c r="AW38">
+        <f t="shared" si="20"/>
+        <v>214.77975600590781</v>
+      </c>
+      <c r="AX38">
+        <f t="shared" si="21"/>
+        <v>214</v>
+      </c>
+      <c r="AY38" t="str">
+        <f t="shared" si="22"/>
+        <v>214,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>90</v>
       </c>
@@ -5284,8 +6154,31 @@
         <f t="shared" si="7"/>
         <v>185,</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT39">
+        <v>39</v>
+      </c>
+      <c r="AU39">
+        <f t="shared" si="18"/>
+        <v>2.4504422698000385</v>
+      </c>
+      <c r="AV39">
+        <f t="shared" si="19"/>
+        <v>0.63742398974868986</v>
+      </c>
+      <c r="AW39">
+        <f t="shared" si="20"/>
+        <v>208.77155869295794</v>
+      </c>
+      <c r="AX39">
+        <f t="shared" si="21"/>
+        <v>208</v>
+      </c>
+      <c r="AY39" t="str">
+        <f t="shared" si="22"/>
+        <v>208,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>71</v>
       </c>
@@ -5312,8 +6205,31 @@
         <f t="shared" si="7"/>
         <v>186,</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT40">
+        <v>40</v>
+      </c>
+      <c r="AU40">
+        <f t="shared" si="18"/>
+        <v>2.5132741228718345</v>
+      </c>
+      <c r="AV40">
+        <f t="shared" si="19"/>
+        <v>0.58778525229247325</v>
+      </c>
+      <c r="AW40">
+        <f t="shared" si="20"/>
+        <v>202.44261966729036</v>
+      </c>
+      <c r="AX40">
+        <f t="shared" si="21"/>
+        <v>202</v>
+      </c>
+      <c r="AY40" t="str">
+        <f t="shared" si="22"/>
+        <v>202,</v>
+      </c>
+    </row>
+    <row r="41" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>53</v>
       </c>
@@ -5340,8 +6256,31 @@
         <f t="shared" si="7"/>
         <v>187,</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT41">
+        <v>41</v>
+      </c>
+      <c r="AU41">
+        <f t="shared" si="18"/>
+        <v>2.57610597594363</v>
+      </c>
+      <c r="AV41">
+        <f t="shared" si="19"/>
+        <v>0.53582679497899699</v>
+      </c>
+      <c r="AW41">
+        <f t="shared" si="20"/>
+        <v>195.81791635982211</v>
+      </c>
+      <c r="AX41">
+        <f t="shared" si="21"/>
+        <v>195</v>
+      </c>
+      <c r="AY41" t="str">
+        <f t="shared" si="22"/>
+        <v>195,</v>
+      </c>
+    </row>
+    <row r="42" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>35</v>
       </c>
@@ -5368,8 +6307,31 @@
         <f t="shared" si="7"/>
         <v>189,</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT42">
+        <v>42</v>
+      </c>
+      <c r="AU42">
+        <f t="shared" si="18"/>
+        <v>2.638937829015426</v>
+      </c>
+      <c r="AV42">
+        <f t="shared" si="19"/>
+        <v>0.4817536741017156</v>
+      </c>
+      <c r="AW42">
+        <f t="shared" si="20"/>
+        <v>188.92359344796876</v>
+      </c>
+      <c r="AX42">
+        <f t="shared" si="21"/>
+        <v>188</v>
+      </c>
+      <c r="AY42" t="str">
+        <f t="shared" si="22"/>
+        <v>188,</v>
+      </c>
+    </row>
+    <row r="43" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>18</v>
       </c>
@@ -5396,8 +6358,31 @@
         <f t="shared" si="7"/>
         <v>190,</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT43">
+        <v>43</v>
+      </c>
+      <c r="AU43">
+        <f t="shared" si="18"/>
+        <v>2.7017696820872219</v>
+      </c>
+      <c r="AV43">
+        <f t="shared" si="19"/>
+        <v>0.42577929156507288</v>
+      </c>
+      <c r="AW43">
+        <f t="shared" si="20"/>
+        <v>181.7868596745468</v>
+      </c>
+      <c r="AX43">
+        <f t="shared" si="21"/>
+        <v>181</v>
+      </c>
+      <c r="AY43" t="str">
+        <f t="shared" si="22"/>
+        <v>181,</v>
+      </c>
+    </row>
+    <row r="44" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>13</v>
       </c>
@@ -5424,8 +6409,31 @@
         <f t="shared" si="7"/>
         <v>191,</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT44">
+        <v>44</v>
+      </c>
+      <c r="AU44">
+        <f t="shared" si="18"/>
+        <v>2.7646015351590179</v>
+      </c>
+      <c r="AV44">
+        <f t="shared" si="19"/>
+        <v>0.36812455268467814</v>
+      </c>
+      <c r="AW44">
+        <f t="shared" si="20"/>
+        <v>174.43588046729647</v>
+      </c>
+      <c r="AX44">
+        <f t="shared" si="21"/>
+        <v>174</v>
+      </c>
+      <c r="AY44" t="str">
+        <f t="shared" si="22"/>
+        <v>174,</v>
+      </c>
+    </row>
+    <row r="45" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>8</v>
       </c>
@@ -5452,8 +6460,31 @@
         <f t="shared" si="7"/>
         <v>192,</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT45">
+        <v>45</v>
+      </c>
+      <c r="AU45">
+        <f t="shared" si="18"/>
+        <v>2.8274333882308138</v>
+      </c>
+      <c r="AV45">
+        <f t="shared" si="19"/>
+        <v>0.30901699437494751</v>
+      </c>
+      <c r="AW45">
+        <f t="shared" si="20"/>
+        <v>166.89966678280581</v>
+      </c>
+      <c r="AX45">
+        <f t="shared" si="21"/>
+        <v>166</v>
+      </c>
+      <c r="AY45" t="str">
+        <f t="shared" si="22"/>
+        <v>166,</v>
+      </c>
+    </row>
+    <row r="46" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5</v>
       </c>
@@ -5480,8 +6511,31 @@
         <f t="shared" si="7"/>
         <v>193,</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT46">
+        <v>46</v>
+      </c>
+      <c r="AU46">
+        <f t="shared" si="18"/>
+        <v>2.8902652413026098</v>
+      </c>
+      <c r="AV46">
+        <f t="shared" si="19"/>
+        <v>0.24868988716485482</v>
+      </c>
+      <c r="AW46">
+        <f t="shared" si="20"/>
+        <v>159.20796061351899</v>
+      </c>
+      <c r="AX46">
+        <f t="shared" si="21"/>
+        <v>159</v>
+      </c>
+      <c r="AY46" t="str">
+        <f t="shared" si="22"/>
+        <v>159,</v>
+      </c>
+    </row>
+    <row r="47" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
@@ -5508,8 +6562,31 @@
         <f t="shared" si="7"/>
         <v>194,</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT47">
+        <v>47</v>
+      </c>
+      <c r="AU47">
+        <f t="shared" si="18"/>
+        <v>2.9530970943744053</v>
+      </c>
+      <c r="AV47">
+        <f t="shared" si="19"/>
+        <v>0.18738131458572502</v>
+      </c>
+      <c r="AW47">
+        <f t="shared" si="20"/>
+        <v>151.39111760967995</v>
+      </c>
+      <c r="AX47">
+        <f t="shared" si="21"/>
+        <v>151</v>
+      </c>
+      <c r="AY47" t="str">
+        <f t="shared" si="22"/>
+        <v>151,</v>
+      </c>
+    </row>
+    <row r="48" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1</v>
       </c>
@@ -5536,8 +6613,31 @@
         <f t="shared" si="7"/>
         <v>195,</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT48">
+        <v>48</v>
+      </c>
+      <c r="AU48">
+        <f t="shared" si="18"/>
+        <v>3.0159289474462012</v>
+      </c>
+      <c r="AV48">
+        <f t="shared" si="19"/>
+        <v>0.12533323356430454</v>
+      </c>
+      <c r="AW48">
+        <f t="shared" si="20"/>
+        <v>143.47998727944884</v>
+      </c>
+      <c r="AX48">
+        <f t="shared" si="21"/>
+        <v>143</v>
+      </c>
+      <c r="AY48" t="str">
+        <f t="shared" si="22"/>
+        <v>143,</v>
+      </c>
+    </row>
+    <row r="49" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1</v>
       </c>
@@ -5564,8 +6664,31 @@
         <f t="shared" si="7"/>
         <v>195,</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT49">
+        <v>49</v>
+      </c>
+      <c r="AU49">
+        <f t="shared" si="18"/>
+        <v>3.0787608005179972</v>
+      </c>
+      <c r="AV49">
+        <f t="shared" si="19"/>
+        <v>6.2790519529313582E-2</v>
+      </c>
+      <c r="AW49">
+        <f t="shared" si="20"/>
+        <v>135.50579123998747</v>
+      </c>
+      <c r="AX49">
+        <f t="shared" si="21"/>
+        <v>135</v>
+      </c>
+      <c r="AY49" t="str">
+        <f t="shared" si="22"/>
+        <v>135,</v>
+      </c>
+    </row>
+    <row r="50" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1</v>
       </c>
@@ -5592,8 +6715,31 @@
         <f t="shared" si="7"/>
         <v>196,</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT50">
+        <v>50</v>
+      </c>
+      <c r="AU50">
+        <f t="shared" si="18"/>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="AV50">
+        <f t="shared" si="19"/>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="AW50">
+        <f t="shared" si="20"/>
+        <v>127.50000000000003</v>
+      </c>
+      <c r="AX50">
+        <f t="shared" si="21"/>
+        <v>127</v>
+      </c>
+      <c r="AY50" t="str">
+        <f t="shared" si="22"/>
+        <v>127,</v>
+      </c>
+    </row>
+    <row r="51" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3</v>
       </c>
@@ -5620,8 +6766,31 @@
         <f t="shared" si="7"/>
         <v>197,</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT51">
+        <v>51</v>
+      </c>
+      <c r="AU51">
+        <f t="shared" si="18"/>
+        <v>3.2044245066615891</v>
+      </c>
+      <c r="AV51">
+        <f t="shared" si="19"/>
+        <v>-6.2790519529313346E-2</v>
+      </c>
+      <c r="AW51">
+        <f t="shared" si="20"/>
+        <v>119.49420876001254</v>
+      </c>
+      <c r="AX51">
+        <f t="shared" si="21"/>
+        <v>119</v>
+      </c>
+      <c r="AY51" t="str">
+        <f t="shared" si="22"/>
+        <v>119,</v>
+      </c>
+    </row>
+    <row r="52" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>5</v>
       </c>
@@ -5648,8 +6817,31 @@
         <f t="shared" si="7"/>
         <v>197,</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT52">
+        <v>52</v>
+      </c>
+      <c r="AU52">
+        <f t="shared" si="18"/>
+        <v>3.267256359733385</v>
+      </c>
+      <c r="AV52">
+        <f t="shared" si="19"/>
+        <v>-0.12533323356430429</v>
+      </c>
+      <c r="AW52">
+        <f t="shared" si="20"/>
+        <v>111.52001272055121</v>
+      </c>
+      <c r="AX52">
+        <f t="shared" si="21"/>
+        <v>111</v>
+      </c>
+      <c r="AY52" t="str">
+        <f t="shared" si="22"/>
+        <v>111,</v>
+      </c>
+    </row>
+    <row r="53" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>8</v>
       </c>
@@ -5676,8 +6868,31 @@
         <f t="shared" si="7"/>
         <v>198,</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT53">
+        <v>53</v>
+      </c>
+      <c r="AU53">
+        <f t="shared" si="18"/>
+        <v>3.330088212805181</v>
+      </c>
+      <c r="AV53">
+        <f t="shared" si="19"/>
+        <v>-0.18738131458572477</v>
+      </c>
+      <c r="AW53">
+        <f t="shared" si="20"/>
+        <v>103.60888239032009</v>
+      </c>
+      <c r="AX53">
+        <f t="shared" si="21"/>
+        <v>103</v>
+      </c>
+      <c r="AY53" t="str">
+        <f t="shared" si="22"/>
+        <v>103,</v>
+      </c>
+    </row>
+    <row r="54" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>13</v>
       </c>
@@ -5704,8 +6919,31 @@
         <f t="shared" si="7"/>
         <v>198,</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT54">
+        <v>54</v>
+      </c>
+      <c r="AU54">
+        <f t="shared" si="18"/>
+        <v>3.3929200658769769</v>
+      </c>
+      <c r="AV54">
+        <f t="shared" si="19"/>
+        <v>-0.24868988716485502</v>
+      </c>
+      <c r="AW54">
+        <f t="shared" si="20"/>
+        <v>95.79203938648098</v>
+      </c>
+      <c r="AX54">
+        <f t="shared" si="21"/>
+        <v>95</v>
+      </c>
+      <c r="AY54" t="str">
+        <f t="shared" si="22"/>
+        <v>95,</v>
+      </c>
+    </row>
+    <row r="55" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>18</v>
       </c>
@@ -5732,8 +6970,31 @@
         <f t="shared" si="7"/>
         <v>199,</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT55">
+        <v>55</v>
+      </c>
+      <c r="AU55">
+        <f t="shared" si="18"/>
+        <v>3.4557519189487729</v>
+      </c>
+      <c r="AV55">
+        <f t="shared" si="19"/>
+        <v>-0.30901699437494773</v>
+      </c>
+      <c r="AW55">
+        <f t="shared" si="20"/>
+        <v>88.100333217194176</v>
+      </c>
+      <c r="AX55">
+        <f t="shared" si="21"/>
+        <v>88</v>
+      </c>
+      <c r="AY55" t="str">
+        <f t="shared" si="22"/>
+        <v>88,</v>
+      </c>
+    </row>
+    <row r="56" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>13</v>
       </c>
@@ -5760,8 +7021,31 @@
         <f t="shared" si="7"/>
         <v>199,</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT56">
+        <v>56</v>
+      </c>
+      <c r="AU56">
+        <f t="shared" si="18"/>
+        <v>3.5185837720205688</v>
+      </c>
+      <c r="AV56">
+        <f t="shared" si="19"/>
+        <v>-0.36812455268467831</v>
+      </c>
+      <c r="AW56">
+        <f t="shared" si="20"/>
+        <v>80.564119532703515</v>
+      </c>
+      <c r="AX56">
+        <f t="shared" si="21"/>
+        <v>80</v>
+      </c>
+      <c r="AY56" t="str">
+        <f t="shared" si="22"/>
+        <v>80,</v>
+      </c>
+    </row>
+    <row r="57" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>8</v>
       </c>
@@ -5788,8 +7072,31 @@
         <f t="shared" si="7"/>
         <v>199,</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT57">
+        <v>57</v>
+      </c>
+      <c r="AU57">
+        <f t="shared" si="18"/>
+        <v>3.5814156250923639</v>
+      </c>
+      <c r="AV57">
+        <f t="shared" si="19"/>
+        <v>-0.42577929156507227</v>
+      </c>
+      <c r="AW57">
+        <f t="shared" si="20"/>
+        <v>73.213140325453296</v>
+      </c>
+      <c r="AX57">
+        <f t="shared" si="21"/>
+        <v>73</v>
+      </c>
+      <c r="AY57" t="str">
+        <f t="shared" si="22"/>
+        <v>73,</v>
+      </c>
+    </row>
+    <row r="58" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>5</v>
       </c>
@@ -5816,8 +7123,31 @@
         <f t="shared" si="7"/>
         <v>199,</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT58">
+        <v>58</v>
+      </c>
+      <c r="AU58">
+        <f t="shared" si="18"/>
+        <v>3.6442474781641598</v>
+      </c>
+      <c r="AV58">
+        <f t="shared" si="19"/>
+        <v>-0.48175367410171499</v>
+      </c>
+      <c r="AW58">
+        <f t="shared" si="20"/>
+        <v>66.076406552031344</v>
+      </c>
+      <c r="AX58">
+        <f t="shared" si="21"/>
+        <v>66</v>
+      </c>
+      <c r="AY58" t="str">
+        <f t="shared" si="22"/>
+        <v>66,</v>
+      </c>
+    </row>
+    <row r="59" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3</v>
       </c>
@@ -5844,8 +7174,31 @@
         <f t="shared" si="7"/>
         <v>199,</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT59">
+        <v>59</v>
+      </c>
+      <c r="AU59">
+        <f t="shared" si="18"/>
+        <v>3.7070793312359558</v>
+      </c>
+      <c r="AV59">
+        <f t="shared" si="19"/>
+        <v>-0.53582679497899643</v>
+      </c>
+      <c r="AW59">
+        <f t="shared" si="20"/>
+        <v>59.182083640177957</v>
+      </c>
+      <c r="AX59">
+        <f t="shared" si="21"/>
+        <v>59</v>
+      </c>
+      <c r="AY59" t="str">
+        <f t="shared" si="22"/>
+        <v>59,</v>
+      </c>
+    </row>
+    <row r="60" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1</v>
       </c>
@@ -5872,8 +7225,31 @@
         <f t="shared" si="7"/>
         <v>200,</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT60">
+        <v>60</v>
+      </c>
+      <c r="AU60">
+        <f t="shared" si="18"/>
+        <v>3.7699111843077517</v>
+      </c>
+      <c r="AV60">
+        <f t="shared" si="19"/>
+        <v>-0.58778525229247303</v>
+      </c>
+      <c r="AW60">
+        <f t="shared" si="20"/>
+        <v>52.557380332709691</v>
+      </c>
+      <c r="AX60">
+        <f t="shared" si="21"/>
+        <v>52</v>
+      </c>
+      <c r="AY60" t="str">
+        <f t="shared" si="22"/>
+        <v>52,</v>
+      </c>
+    </row>
+    <row r="61" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1</v>
       </c>
@@ -5900,8 +7276,31 @@
         <f t="shared" si="7"/>
         <v>199,</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT61">
+        <v>61</v>
+      </c>
+      <c r="AU61">
+        <f t="shared" si="18"/>
+        <v>3.8327430373795477</v>
+      </c>
+      <c r="AV61">
+        <f t="shared" si="19"/>
+        <v>-0.63742398974868963</v>
+      </c>
+      <c r="AW61">
+        <f t="shared" si="20"/>
+        <v>46.228441307042068</v>
+      </c>
+      <c r="AX61">
+        <f t="shared" si="21"/>
+        <v>46</v>
+      </c>
+      <c r="AY61" t="str">
+        <f t="shared" si="22"/>
+        <v>46,</v>
+      </c>
+    </row>
+    <row r="62" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1</v>
       </c>
@@ -5928,8 +7327,31 @@
         <f t="shared" si="7"/>
         <v>199,</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT62">
+        <v>62</v>
+      </c>
+      <c r="AU62">
+        <f t="shared" si="18"/>
+        <v>3.8955748904513436</v>
+      </c>
+      <c r="AV62">
+        <f t="shared" si="19"/>
+        <v>-0.68454710592868873</v>
+      </c>
+      <c r="AW62">
+        <f t="shared" si="20"/>
+        <v>40.220243994092186</v>
+      </c>
+      <c r="AX62">
+        <f t="shared" si="21"/>
+        <v>40</v>
+      </c>
+      <c r="AY62" t="str">
+        <f t="shared" si="22"/>
+        <v>40,</v>
+      </c>
+    </row>
+    <row r="63" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>3</v>
       </c>
@@ -5956,8 +7378,31 @@
         <f t="shared" si="7"/>
         <v>199,</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT63">
+        <v>63</v>
+      </c>
+      <c r="AU63">
+        <f t="shared" si="18"/>
+        <v>3.9584067435231391</v>
+      </c>
+      <c r="AV63">
+        <f t="shared" si="19"/>
+        <v>-0.72896862742141133</v>
+      </c>
+      <c r="AW63">
+        <f t="shared" si="20"/>
+        <v>34.556500003770054</v>
+      </c>
+      <c r="AX63">
+        <f t="shared" si="21"/>
+        <v>34</v>
+      </c>
+      <c r="AY63" t="str">
+        <f t="shared" si="22"/>
+        <v>34,</v>
+      </c>
+    </row>
+    <row r="64" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>5</v>
       </c>
@@ -5984,8 +7429,31 @@
         <f t="shared" si="7"/>
         <v>199,</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT64">
+        <v>64</v>
+      </c>
+      <c r="AU64">
+        <f t="shared" si="18"/>
+        <v>4.0212385965949355</v>
+      </c>
+      <c r="AV64">
+        <f t="shared" si="19"/>
+        <v>-0.77051324277578936</v>
+      </c>
+      <c r="AW64">
+        <f t="shared" si="20"/>
+        <v>29.259561546086857</v>
+      </c>
+      <c r="AX64">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="AY64" t="str">
+        <f t="shared" si="22"/>
+        <v>29,</v>
+      </c>
+    </row>
+    <row r="65" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>8</v>
       </c>
@@ -6012,8 +7480,31 @@
         <f t="shared" si="7"/>
         <v>199,</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT65">
+        <v>65</v>
+      </c>
+      <c r="AU65">
+        <f t="shared" si="18"/>
+        <v>4.0840704496667311</v>
+      </c>
+      <c r="AV65">
+        <f t="shared" si="19"/>
+        <v>-0.80901699437494734</v>
+      </c>
+      <c r="AW65">
+        <f t="shared" si="20"/>
+        <v>24.350333217194216</v>
+      </c>
+      <c r="AX65">
+        <f t="shared" si="21"/>
+        <v>24</v>
+      </c>
+      <c r="AY65" t="str">
+        <f t="shared" si="22"/>
+        <v>24,</v>
+      </c>
+    </row>
+    <row r="66" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>13</v>
       </c>
@@ -6021,27 +7512,50 @@
         <v>66</v>
       </c>
       <c r="I66">
-        <f t="shared" ref="I66:I129" si="18">H66/240*2*PI()</f>
+        <f t="shared" ref="I66:I129" si="23">H66/240*2*PI()</f>
         <v>1.7278759594743864</v>
       </c>
       <c r="J66">
-        <f t="shared" ref="J66:J129" si="19">SIN(I66)</f>
+        <f t="shared" ref="J66:J129" si="24">SIN(I66)</f>
         <v>0.98768834059513766</v>
       </c>
       <c r="K66">
-        <f t="shared" ref="K66:K129" si="20">(J66+1)*60000/300/2</f>
+        <f t="shared" ref="K66:K129" si="25">(J66+1)*60000/300/2</f>
         <v>198.76883405951378</v>
       </c>
       <c r="L66">
-        <f t="shared" ref="L66:L129" si="21">FLOOR(K66, 1)</f>
+        <f t="shared" ref="L66:L129" si="26">FLOOR(K66, 1)</f>
         <v>198</v>
       </c>
       <c r="M66" t="str">
-        <f t="shared" ref="M66:M129" si="22">L66&amp;","</f>
+        <f t="shared" ref="M66:M129" si="27">L66&amp;","</f>
         <v>198,</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT66">
+        <v>66</v>
+      </c>
+      <c r="AU66">
+        <f t="shared" ref="AU66:AU100" si="28">AT66/100*2*PI()</f>
+        <v>4.1469023027385274</v>
+      </c>
+      <c r="AV66">
+        <f t="shared" ref="AV66:AV100" si="29">SIN(AU66)</f>
+        <v>-0.8443279255020153</v>
+      </c>
+      <c r="AW66">
+        <f t="shared" ref="AW66:AW100" si="30">(AV66+1)*255/2</f>
+        <v>19.848189498493049</v>
+      </c>
+      <c r="AX66">
+        <f t="shared" ref="AX66:AX100" si="31">FLOOR(AW66, 1)</f>
+        <v>19</v>
+      </c>
+      <c r="AY66" t="str">
+        <f t="shared" ref="AY66:AY100" si="32">AX66&amp;","</f>
+        <v>19,</v>
+      </c>
+    </row>
+    <row r="67" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>18</v>
       </c>
@@ -6049,27 +7563,50 @@
         <v>67</v>
       </c>
       <c r="I67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>1.7540558982543013</v>
       </c>
       <c r="J67">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.98325490756395462</v>
       </c>
       <c r="K67">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>198.32549075639548</v>
       </c>
       <c r="L67">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>198</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>198,</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT67">
+        <v>67</v>
+      </c>
+      <c r="AU67">
+        <f t="shared" si="28"/>
+        <v>4.209734155810323</v>
+      </c>
+      <c r="AV67">
+        <f t="shared" si="29"/>
+        <v>-0.87630668004386358</v>
+      </c>
+      <c r="AW67">
+        <f t="shared" si="30"/>
+        <v>15.770898294407393</v>
+      </c>
+      <c r="AX67">
+        <f t="shared" si="31"/>
+        <v>15</v>
+      </c>
+      <c r="AY67" t="str">
+        <f t="shared" si="32"/>
+        <v>15,</v>
+      </c>
+    </row>
+    <row r="68" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>35</v>
       </c>
@@ -6077,27 +7614,50 @@
         <v>68</v>
       </c>
       <c r="I68">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>1.780235837034216</v>
       </c>
       <c r="J68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.97814760073380569</v>
       </c>
       <c r="K68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>197.81476007338057</v>
       </c>
       <c r="L68">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>197</v>
       </c>
       <c r="M68" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>197,</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT68">
+        <v>68</v>
+      </c>
+      <c r="AU68">
+        <f t="shared" si="28"/>
+        <v>4.2725660088821193</v>
+      </c>
+      <c r="AV68">
+        <f t="shared" si="29"/>
+        <v>-0.9048270524660198</v>
+      </c>
+      <c r="AW68">
+        <f t="shared" si="30"/>
+        <v>12.134550810582475</v>
+      </c>
+      <c r="AX68">
+        <f t="shared" si="31"/>
+        <v>12</v>
+      </c>
+      <c r="AY68" t="str">
+        <f t="shared" si="32"/>
+        <v>12,</v>
+      </c>
+    </row>
+    <row r="69" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>53</v>
       </c>
@@ -6105,27 +7665,50 @@
         <v>69</v>
       </c>
       <c r="I69">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>1.8064157758141308</v>
       </c>
       <c r="J69">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.97236992039767667</v>
       </c>
       <c r="K69">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>197.23699203976767</v>
       </c>
       <c r="L69">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>197</v>
       </c>
       <c r="M69" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>197,</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT69">
+        <v>69</v>
+      </c>
+      <c r="AU69">
+        <f t="shared" si="28"/>
+        <v>4.335397861953914</v>
+      </c>
+      <c r="AV69">
+        <f t="shared" si="29"/>
+        <v>-0.92977648588825113</v>
+      </c>
+      <c r="AW69">
+        <f t="shared" si="30"/>
+        <v>8.9534980492479814</v>
+      </c>
+      <c r="AX69">
+        <f t="shared" si="31"/>
+        <v>8</v>
+      </c>
+      <c r="AY69" t="str">
+        <f t="shared" si="32"/>
+        <v>8,</v>
+      </c>
+    </row>
+    <row r="70" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>71</v>
       </c>
@@ -6133,27 +7716,50 @@
         <v>70</v>
       </c>
       <c r="I70">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>1.8325957145940461</v>
       </c>
       <c r="J70">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.96592582628906831</v>
       </c>
       <c r="K70">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>196.59258262890683</v>
       </c>
       <c r="L70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>196</v>
       </c>
       <c r="M70" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>196,</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT70">
+        <v>70</v>
+      </c>
+      <c r="AU70">
+        <f t="shared" si="28"/>
+        <v>4.3982297150257104</v>
+      </c>
+      <c r="AV70">
+        <f t="shared" si="29"/>
+        <v>-0.95105651629515353</v>
+      </c>
+      <c r="AW70">
+        <f t="shared" si="30"/>
+        <v>6.2402941723679248</v>
+      </c>
+      <c r="AX70">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="AY70" t="str">
+        <f t="shared" si="32"/>
+        <v>6,</v>
+      </c>
+    </row>
+    <row r="71" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>90</v>
       </c>
@@ -6161,27 +7767,50 @@
         <v>71</v>
       </c>
       <c r="I71">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>1.858775653373961</v>
       </c>
       <c r="J71">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.95881973486819305</v>
       </c>
       <c r="K71">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>195.88197348681931</v>
       </c>
       <c r="L71">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>195</v>
       </c>
       <c r="M71" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>195,</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT71">
+        <v>71</v>
+      </c>
+      <c r="AU71">
+        <f t="shared" si="28"/>
+        <v>4.4610615680975059</v>
+      </c>
+      <c r="AV71">
+        <f t="shared" si="29"/>
+        <v>-0.96858316112863097</v>
+      </c>
+      <c r="AW71">
+        <f t="shared" si="30"/>
+        <v>4.005646956099552</v>
+      </c>
+      <c r="AX71">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+      <c r="AY71" t="str">
+        <f t="shared" si="32"/>
+        <v>4,</v>
+      </c>
+    </row>
+    <row r="72" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>109</v>
       </c>
@@ -6189,1023 +7818,1690 @@
         <v>72</v>
       </c>
       <c r="I72">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>1.8849555921538759</v>
       </c>
       <c r="J72">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.95105651629515364</v>
       </c>
       <c r="K72">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>195.10565162951536</v>
       </c>
       <c r="L72">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>195</v>
       </c>
       <c r="M72" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>195,</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT72">
+        <v>72</v>
+      </c>
+      <c r="AU72">
+        <f t="shared" si="28"/>
+        <v>4.5238934211693023</v>
+      </c>
+      <c r="AV72">
+        <f t="shared" si="29"/>
+        <v>-0.98228725072868872</v>
+      </c>
+      <c r="AW72">
+        <f t="shared" si="30"/>
+        <v>2.2583755320921881</v>
+      </c>
+      <c r="AX72">
+        <f t="shared" si="31"/>
+        <v>2</v>
+      </c>
+      <c r="AY72" t="str">
+        <f t="shared" si="32"/>
+        <v>2,</v>
+      </c>
+    </row>
+    <row r="73" spans="1:51" x14ac:dyDescent="0.2">
       <c r="H73">
         <v>73</v>
       </c>
       <c r="I73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>1.9111355309337907</v>
       </c>
       <c r="J73">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.94264149109217843</v>
       </c>
       <c r="K73">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>194.26414910921787</v>
       </c>
       <c r="L73">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>194</v>
       </c>
       <c r="M73" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>194,</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT73">
+        <v>73</v>
+      </c>
+      <c r="AU73">
+        <f t="shared" si="28"/>
+        <v>4.5867252742410978</v>
+      </c>
+      <c r="AV73">
+        <f t="shared" si="29"/>
+        <v>-0.99211470131447776</v>
+      </c>
+      <c r="AW73">
+        <f t="shared" si="30"/>
+        <v>1.0053755824040849</v>
+      </c>
+      <c r="AX73">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="AY73" t="str">
+        <f t="shared" si="32"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="74" spans="1:51" x14ac:dyDescent="0.2">
       <c r="H74">
         <v>74</v>
       </c>
       <c r="I74">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>1.9373154697137058</v>
       </c>
       <c r="J74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.93358042649720174</v>
       </c>
       <c r="K74">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>193.35804264972015</v>
       </c>
       <c r="L74">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>193</v>
       </c>
       <c r="M74" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>193,</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT74">
+        <v>74</v>
+      </c>
+      <c r="AU74">
+        <f t="shared" si="28"/>
+        <v>4.6495571273128942</v>
+      </c>
+      <c r="AV74">
+        <f t="shared" si="29"/>
+        <v>-0.99802672842827156</v>
+      </c>
+      <c r="AW74">
+        <f t="shared" si="30"/>
+        <v>0.25159212539537623</v>
+      </c>
+      <c r="AX74">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AY74" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="75" spans="1:51" x14ac:dyDescent="0.2">
       <c r="H75">
         <v>75</v>
       </c>
       <c r="I75">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>1.9634954084936207</v>
       </c>
       <c r="J75">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.92387953251128674</v>
       </c>
       <c r="K75">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>192.38795325112866</v>
       </c>
       <c r="L75">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>192</v>
       </c>
       <c r="M75" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>192,</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT75">
+        <v>75</v>
+      </c>
+      <c r="AU75">
+        <f t="shared" si="28"/>
+        <v>4.7123889803846897</v>
+      </c>
+      <c r="AV75">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="AW75">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="AX75">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AY75" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="76" spans="1:51" x14ac:dyDescent="0.2">
       <c r="H76">
         <v>76</v>
       </c>
       <c r="I76">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>1.9896753472735356</v>
       </c>
       <c r="J76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.91354545764260098</v>
       </c>
       <c r="K76">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>191.35454576426008</v>
       </c>
       <c r="L76">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>191</v>
       </c>
       <c r="M76" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>191,</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT76">
+        <v>76</v>
+      </c>
+      <c r="AU76">
+        <f t="shared" si="28"/>
+        <v>4.7752208334564852</v>
+      </c>
+      <c r="AV76">
+        <f t="shared" si="29"/>
+        <v>-0.99802672842827156</v>
+      </c>
+      <c r="AW76">
+        <f t="shared" si="30"/>
+        <v>0.25159212539537623</v>
+      </c>
+      <c r="AX76">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AY76" t="str">
+        <f t="shared" si="32"/>
+        <v>0,</v>
+      </c>
+    </row>
+    <row r="77" spans="1:51" x14ac:dyDescent="0.2">
       <c r="H77">
         <v>77</v>
       </c>
       <c r="I77">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.0158552860534509</v>
       </c>
       <c r="J77">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.90258528434986052</v>
       </c>
       <c r="K77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>190.25852843498606</v>
       </c>
       <c r="L77">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>190</v>
       </c>
       <c r="M77" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>190,</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT77">
+        <v>77</v>
+      </c>
+      <c r="AU77">
+        <f t="shared" si="28"/>
+        <v>4.8380526865282816</v>
+      </c>
+      <c r="AV77">
+        <f t="shared" si="29"/>
+        <v>-0.99211470131447788</v>
+      </c>
+      <c r="AW77">
+        <f t="shared" si="30"/>
+        <v>1.0053755824040709</v>
+      </c>
+      <c r="AX77">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="AY77" t="str">
+        <f t="shared" si="32"/>
+        <v>1,</v>
+      </c>
+    </row>
+    <row r="78" spans="1:51" x14ac:dyDescent="0.2">
       <c r="H78">
         <v>78</v>
       </c>
       <c r="I78">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.0420352248333655</v>
       </c>
       <c r="J78">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.8910065241883679</v>
       </c>
       <c r="K78">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>189.10065241883677</v>
       </c>
       <c r="L78">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>189</v>
       </c>
       <c r="M78" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>189,</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT78">
+        <v>78</v>
+      </c>
+      <c r="AU78">
+        <f t="shared" si="28"/>
+        <v>4.9008845396000771</v>
+      </c>
+      <c r="AV78">
+        <f t="shared" si="29"/>
+        <v>-0.98228725072868872</v>
+      </c>
+      <c r="AW78">
+        <f t="shared" si="30"/>
+        <v>2.2583755320921881</v>
+      </c>
+      <c r="AX78">
+        <f t="shared" si="31"/>
+        <v>2</v>
+      </c>
+      <c r="AY78" t="str">
+        <f t="shared" si="32"/>
+        <v>2,</v>
+      </c>
+    </row>
+    <row r="79" spans="1:51" x14ac:dyDescent="0.2">
       <c r="H79">
         <v>79</v>
       </c>
       <c r="I79">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.0682151636132806</v>
       </c>
       <c r="J79">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.87881711266196538</v>
       </c>
       <c r="K79">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>187.88171126619653</v>
       </c>
       <c r="L79">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>187</v>
       </c>
       <c r="M79" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>187,</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AT79">
+        <v>79</v>
+      </c>
+      <c r="AU79">
+        <f t="shared" si="28"/>
+        <v>4.9637163926718735</v>
+      </c>
+      <c r="AV79">
+        <f t="shared" si="29"/>
+        <v>-0.96858316112863108</v>
+      </c>
+      <c r="AW79">
+        <f t="shared" si="30"/>
+        <v>4.0056469560995378</v>
+      </c>
+      <c r="AX79">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+      <c r="AY79" t="str">
+        <f t="shared" si="32"/>
+        <v>4,</v>
+      </c>
+    </row>
+    <row r="80" spans="1:51" x14ac:dyDescent="0.2">
       <c r="H80">
         <v>80</v>
       </c>
       <c r="I80">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.0943951023931953</v>
       </c>
       <c r="J80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.86602540378443871</v>
       </c>
       <c r="K80">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>186.60254037844388</v>
       </c>
       <c r="L80">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>186</v>
       </c>
       <c r="M80" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>186,</v>
       </c>
-    </row>
-    <row r="81" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="AT80">
+        <v>80</v>
+      </c>
+      <c r="AU80">
+        <f t="shared" si="28"/>
+        <v>5.026548245743669</v>
+      </c>
+      <c r="AV80">
+        <f t="shared" si="29"/>
+        <v>-0.95105651629515364</v>
+      </c>
+      <c r="AW80">
+        <f t="shared" si="30"/>
+        <v>6.2402941723679106</v>
+      </c>
+      <c r="AX80">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="AY80" t="str">
+        <f t="shared" si="32"/>
+        <v>6,</v>
+      </c>
+    </row>
+    <row r="81" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H81">
         <v>81</v>
       </c>
       <c r="I81">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.1205750411731104</v>
       </c>
       <c r="J81">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.85264016435409229</v>
       </c>
       <c r="K81">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>185.26401643540922</v>
       </c>
       <c r="L81">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>185</v>
       </c>
       <c r="M81" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>185,</v>
       </c>
-    </row>
-    <row r="82" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="AT81">
+        <v>81</v>
+      </c>
+      <c r="AU81">
+        <f t="shared" si="28"/>
+        <v>5.0893800988154654</v>
+      </c>
+      <c r="AV81">
+        <f t="shared" si="29"/>
+        <v>-0.92977648588825124</v>
+      </c>
+      <c r="AW81">
+        <f t="shared" si="30"/>
+        <v>8.9534980492479672</v>
+      </c>
+      <c r="AX81">
+        <f t="shared" si="31"/>
+        <v>8</v>
+      </c>
+      <c r="AY81" t="str">
+        <f t="shared" si="32"/>
+        <v>8,</v>
+      </c>
+    </row>
+    <row r="82" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H82">
         <v>82</v>
       </c>
       <c r="I82">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.1467549799530254</v>
       </c>
       <c r="J82">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.83867056794542394</v>
       </c>
       <c r="K82">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>183.86705679454241</v>
       </c>
       <c r="L82">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>183</v>
       </c>
       <c r="M82" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>183,</v>
       </c>
-    </row>
-    <row r="83" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="AT82">
+        <v>82</v>
+      </c>
+      <c r="AU82">
+        <f t="shared" si="28"/>
+        <v>5.15221195188726</v>
+      </c>
+      <c r="AV82">
+        <f t="shared" si="29"/>
+        <v>-0.90482705246601991</v>
+      </c>
+      <c r="AW82">
+        <f t="shared" si="30"/>
+        <v>12.134550810582461</v>
+      </c>
+      <c r="AX82">
+        <f t="shared" si="31"/>
+        <v>12</v>
+      </c>
+      <c r="AY82" t="str">
+        <f t="shared" si="32"/>
+        <v>12,</v>
+      </c>
+    </row>
+    <row r="83" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H83">
         <v>83</v>
       </c>
       <c r="I83">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.1729349187329401</v>
       </c>
       <c r="J83">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.82412618862201581</v>
       </c>
       <c r="K83">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>182.41261886220158</v>
       </c>
       <c r="L83">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>182</v>
       </c>
       <c r="M83" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>182,</v>
       </c>
-    </row>
-    <row r="84" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="AT83">
+        <v>83</v>
+      </c>
+      <c r="AU83">
+        <f t="shared" si="28"/>
+        <v>5.2150438049590564</v>
+      </c>
+      <c r="AV83">
+        <f t="shared" si="29"/>
+        <v>-0.87630668004386381</v>
+      </c>
+      <c r="AW83">
+        <f t="shared" si="30"/>
+        <v>15.770898294407365</v>
+      </c>
+      <c r="AX83">
+        <f t="shared" si="31"/>
+        <v>15</v>
+      </c>
+      <c r="AY83" t="str">
+        <f t="shared" si="32"/>
+        <v>15,</v>
+      </c>
+    </row>
+    <row r="84" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H84">
         <v>84</v>
       </c>
       <c r="I84">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.1991148575128552</v>
       </c>
       <c r="J84">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.80901699437494745</v>
       </c>
       <c r="K84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>180.90169943749476</v>
       </c>
       <c r="L84">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>180</v>
       </c>
       <c r="M84" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>180,</v>
       </c>
-    </row>
-    <row r="85" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="AT84">
+        <v>84</v>
+      </c>
+      <c r="AU84">
+        <f t="shared" si="28"/>
+        <v>5.2778756580308519</v>
+      </c>
+      <c r="AV84">
+        <f t="shared" si="29"/>
+        <v>-0.84432792550201552</v>
+      </c>
+      <c r="AW84">
+        <f t="shared" si="30"/>
+        <v>19.848189498493021</v>
+      </c>
+      <c r="AX84">
+        <f t="shared" si="31"/>
+        <v>19</v>
+      </c>
+      <c r="AY84" t="str">
+        <f t="shared" si="32"/>
+        <v>19,</v>
+      </c>
+    </row>
+    <row r="85" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H85">
         <v>85</v>
       </c>
       <c r="I85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.2252947962927703</v>
       </c>
       <c r="J85">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.79335334029123517</v>
       </c>
       <c r="K85">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>179.33533402912352</v>
       </c>
       <c r="L85">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>179</v>
       </c>
       <c r="M85" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>179,</v>
       </c>
-    </row>
-    <row r="86" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="AT85">
+        <v>85</v>
+      </c>
+      <c r="AU85">
+        <f t="shared" si="28"/>
+        <v>5.3407075111026483</v>
+      </c>
+      <c r="AV85">
+        <f t="shared" si="29"/>
+        <v>-0.80901699437494756</v>
+      </c>
+      <c r="AW85">
+        <f t="shared" si="30"/>
+        <v>24.350333217194187</v>
+      </c>
+      <c r="AX85">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="AY85" t="str">
+        <f t="shared" si="32"/>
+        <v>24,</v>
+      </c>
+    </row>
+    <row r="86" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H86">
         <v>86</v>
       </c>
       <c r="I86">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.2514747350726849</v>
       </c>
       <c r="J86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.77714596145697101</v>
       </c>
       <c r="K86">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>177.7145961456971</v>
       </c>
       <c r="L86">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>177</v>
       </c>
       <c r="M86" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>177,</v>
       </c>
-    </row>
-    <row r="87" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="AT86">
+        <v>86</v>
+      </c>
+      <c r="AU86">
+        <f t="shared" si="28"/>
+        <v>5.4035393641744438</v>
+      </c>
+      <c r="AV86">
+        <f t="shared" si="29"/>
+        <v>-0.77051324277578959</v>
+      </c>
+      <c r="AW86">
+        <f t="shared" si="30"/>
+        <v>29.259561546086829</v>
+      </c>
+      <c r="AX86">
+        <f t="shared" si="31"/>
+        <v>29</v>
+      </c>
+      <c r="AY86" t="str">
+        <f t="shared" si="32"/>
+        <v>29,</v>
+      </c>
+    </row>
+    <row r="87" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H87">
         <v>87</v>
       </c>
       <c r="I87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.2776546738526</v>
       </c>
       <c r="J87">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.76040596560003104</v>
       </c>
       <c r="K87">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>176.04059656000311</v>
       </c>
       <c r="L87">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>176</v>
       </c>
       <c r="M87" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>176,</v>
       </c>
-    </row>
-    <row r="88" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="AT87">
+        <v>87</v>
+      </c>
+      <c r="AU87">
+        <f t="shared" si="28"/>
+        <v>5.4663712172462402</v>
+      </c>
+      <c r="AV87">
+        <f t="shared" si="29"/>
+        <v>-0.72896862742141155</v>
+      </c>
+      <c r="AW87">
+        <f t="shared" si="30"/>
+        <v>34.556500003770026</v>
+      </c>
+      <c r="AX87">
+        <f t="shared" si="31"/>
+        <v>34</v>
+      </c>
+      <c r="AY87" t="str">
+        <f t="shared" si="32"/>
+        <v>34,</v>
+      </c>
+    </row>
+    <row r="88" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H88">
         <v>88</v>
       </c>
       <c r="I88">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.3038346126325147</v>
       </c>
       <c r="J88">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.74314482547739447</v>
       </c>
       <c r="K88">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>174.31448254773943</v>
       </c>
       <c r="L88">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>174</v>
       </c>
       <c r="M88" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>174,</v>
       </c>
-    </row>
-    <row r="89" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="AT88">
+        <v>88</v>
+      </c>
+      <c r="AU88">
+        <f t="shared" si="28"/>
+        <v>5.5292030703180357</v>
+      </c>
+      <c r="AV88">
+        <f t="shared" si="29"/>
+        <v>-0.68454710592868895</v>
+      </c>
+      <c r="AW88">
+        <f t="shared" si="30"/>
+        <v>40.220243994092158</v>
+      </c>
+      <c r="AX88">
+        <f t="shared" si="31"/>
+        <v>40</v>
+      </c>
+      <c r="AY88" t="str">
+        <f t="shared" si="32"/>
+        <v>40,</v>
+      </c>
+    </row>
+    <row r="89" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H89">
         <v>89</v>
       </c>
       <c r="I89">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.3300145514124302</v>
       </c>
       <c r="J89">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.72537437101228752</v>
       </c>
       <c r="K89">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>172.53743710122876</v>
       </c>
       <c r="L89">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>172</v>
       </c>
       <c r="M89" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>172,</v>
       </c>
-    </row>
-    <row r="90" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="AT89">
+        <v>89</v>
+      </c>
+      <c r="AU89">
+        <f t="shared" si="28"/>
+        <v>5.5920349233898321</v>
+      </c>
+      <c r="AV89">
+        <f t="shared" si="29"/>
+        <v>-0.63742398974868963</v>
+      </c>
+      <c r="AW89">
+        <f t="shared" si="30"/>
+        <v>46.228441307042068</v>
+      </c>
+      <c r="AX89">
+        <f t="shared" si="31"/>
+        <v>46</v>
+      </c>
+      <c r="AY89" t="str">
+        <f t="shared" si="32"/>
+        <v>46,</v>
+      </c>
+    </row>
+    <row r="90" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H90">
         <v>90</v>
       </c>
       <c r="I90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.3561944901923448</v>
       </c>
       <c r="J90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.70710678118654757</v>
       </c>
       <c r="K90">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>170.71067811865473</v>
       </c>
       <c r="L90">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>170</v>
       </c>
       <c r="M90" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>170,</v>
       </c>
-    </row>
-    <row r="91" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="AT90">
+        <v>90</v>
+      </c>
+      <c r="AU90">
+        <f t="shared" si="28"/>
+        <v>5.6548667764616276</v>
+      </c>
+      <c r="AV90">
+        <f t="shared" si="29"/>
+        <v>-0.58778525229247336</v>
+      </c>
+      <c r="AW90">
+        <f t="shared" si="30"/>
+        <v>52.557380332709648</v>
+      </c>
+      <c r="AX90">
+        <f t="shared" si="31"/>
+        <v>52</v>
+      </c>
+      <c r="AY90" t="str">
+        <f t="shared" si="32"/>
+        <v>52,</v>
+      </c>
+    </row>
+    <row r="91" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H91">
         <v>91</v>
       </c>
       <c r="I91">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.3823744289722595</v>
       </c>
       <c r="J91">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.68835457569375424</v>
       </c>
       <c r="K91">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>168.83545756937542</v>
       </c>
       <c r="L91">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>168</v>
       </c>
       <c r="M91" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>168,</v>
       </c>
-    </row>
-    <row r="92" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="AT91">
+        <v>91</v>
+      </c>
+      <c r="AU91">
+        <f t="shared" si="28"/>
+        <v>5.717698629533424</v>
+      </c>
+      <c r="AV91">
+        <f t="shared" si="29"/>
+        <v>-0.53582679497899632</v>
+      </c>
+      <c r="AW91">
+        <f t="shared" si="30"/>
+        <v>59.182083640177972</v>
+      </c>
+      <c r="AX91">
+        <f t="shared" si="31"/>
+        <v>59</v>
+      </c>
+      <c r="AY91" t="str">
+        <f t="shared" si="32"/>
+        <v>59,</v>
+      </c>
+    </row>
+    <row r="92" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H92">
         <v>92</v>
       </c>
       <c r="I92">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.408554367752175</v>
       </c>
       <c r="J92">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.66913060635885802</v>
       </c>
       <c r="K92">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>166.91306063588581</v>
       </c>
       <c r="L92">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>166</v>
       </c>
       <c r="M92" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>166,</v>
       </c>
-    </row>
-    <row r="93" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="AT92">
+        <v>92</v>
+      </c>
+      <c r="AU92">
+        <f t="shared" si="28"/>
+        <v>5.7805304826052195</v>
+      </c>
+      <c r="AV92">
+        <f t="shared" si="29"/>
+        <v>-0.48175367410171532</v>
+      </c>
+      <c r="AW92">
+        <f t="shared" si="30"/>
+        <v>66.076406552031301</v>
+      </c>
+      <c r="AX92">
+        <f t="shared" si="31"/>
+        <v>66</v>
+      </c>
+      <c r="AY92" t="str">
+        <f t="shared" si="32"/>
+        <v>66,</v>
+      </c>
+    </row>
+    <row r="93" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H93">
         <v>93</v>
       </c>
       <c r="I93">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.4347343065320897</v>
       </c>
       <c r="J93">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.64944804833018377</v>
       </c>
       <c r="K93">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>164.94480483301837</v>
       </c>
       <c r="L93">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>164</v>
       </c>
       <c r="M93" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>164,</v>
       </c>
-    </row>
-    <row r="94" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="AT93">
+        <v>93</v>
+      </c>
+      <c r="AU93">
+        <f t="shared" si="28"/>
+        <v>5.8433623356770159</v>
+      </c>
+      <c r="AV93">
+        <f t="shared" si="29"/>
+        <v>-0.42577929156507222</v>
+      </c>
+      <c r="AW93">
+        <f t="shared" si="30"/>
+        <v>73.213140325453296</v>
+      </c>
+      <c r="AX93">
+        <f t="shared" si="31"/>
+        <v>73</v>
+      </c>
+      <c r="AY93" t="str">
+        <f t="shared" si="32"/>
+        <v>73,</v>
+      </c>
+    </row>
+    <row r="94" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H94">
         <v>94</v>
       </c>
       <c r="I94">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.4609142453120048</v>
       </c>
       <c r="J94">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.62932039104983739</v>
       </c>
       <c r="K94">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>162.93203910498372</v>
       </c>
       <c r="L94">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>162</v>
       </c>
       <c r="M94" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>162,</v>
       </c>
-    </row>
-    <row r="95" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="AT94">
+        <v>94</v>
+      </c>
+      <c r="AU94">
+        <f t="shared" si="28"/>
+        <v>5.9061941887488105</v>
+      </c>
+      <c r="AV94">
+        <f t="shared" si="29"/>
+        <v>-0.3681245526846787</v>
+      </c>
+      <c r="AW94">
+        <f t="shared" si="30"/>
+        <v>80.564119532703472</v>
+      </c>
+      <c r="AX94">
+        <f t="shared" si="31"/>
+        <v>80</v>
+      </c>
+      <c r="AY94" t="str">
+        <f t="shared" si="32"/>
+        <v>80,</v>
+      </c>
+    </row>
+    <row r="95" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H95">
         <v>95</v>
       </c>
       <c r="I95">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.4870941840919194</v>
       </c>
       <c r="J95">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.60876142900872088</v>
       </c>
       <c r="K95">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>160.87614290087211</v>
       </c>
       <c r="L95">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>160</v>
       </c>
       <c r="M95" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>160,</v>
       </c>
-    </row>
-    <row r="96" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="AT95">
+        <v>95</v>
+      </c>
+      <c r="AU95">
+        <f t="shared" si="28"/>
+        <v>5.9690260418206069</v>
+      </c>
+      <c r="AV95">
+        <f t="shared" si="29"/>
+        <v>-0.30901699437494762</v>
+      </c>
+      <c r="AW95">
+        <f t="shared" si="30"/>
+        <v>88.100333217194176</v>
+      </c>
+      <c r="AX95">
+        <f t="shared" si="31"/>
+        <v>88</v>
+      </c>
+      <c r="AY95" t="str">
+        <f t="shared" si="32"/>
+        <v>88,</v>
+      </c>
+    </row>
+    <row r="96" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H96">
         <v>96</v>
       </c>
       <c r="I96">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.5132741228718345</v>
       </c>
       <c r="J96">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.58778525229247325</v>
       </c>
       <c r="K96">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>158.77852522924735</v>
       </c>
       <c r="L96">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>158</v>
       </c>
       <c r="M96" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>158,</v>
       </c>
-    </row>
-    <row r="97" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="AT96">
+        <v>96</v>
+      </c>
+      <c r="AU96">
+        <f t="shared" si="28"/>
+        <v>6.0318578948924024</v>
+      </c>
+      <c r="AV96">
+        <f t="shared" si="29"/>
+        <v>-0.24868988716485535</v>
+      </c>
+      <c r="AW96">
+        <f t="shared" si="30"/>
+        <v>95.792039386480951</v>
+      </c>
+      <c r="AX96">
+        <f t="shared" si="31"/>
+        <v>95</v>
+      </c>
+      <c r="AY96" t="str">
+        <f t="shared" si="32"/>
+        <v>95,</v>
+      </c>
+    </row>
+    <row r="97" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H97">
         <v>97</v>
       </c>
       <c r="I97">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.5394540616517496</v>
       </c>
       <c r="J97">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.56640623692483283</v>
       </c>
       <c r="K97">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>156.64062369248327</v>
       </c>
       <c r="L97">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>156</v>
       </c>
       <c r="M97" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>156,</v>
       </c>
-    </row>
-    <row r="98" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="AT97">
+        <v>97</v>
+      </c>
+      <c r="AU97">
+        <f t="shared" si="28"/>
+        <v>6.0946897479641988</v>
+      </c>
+      <c r="AV97">
+        <f t="shared" si="29"/>
+        <v>-0.18738131458572468</v>
+      </c>
+      <c r="AW97">
+        <f t="shared" si="30"/>
+        <v>103.6088823903201</v>
+      </c>
+      <c r="AX97">
+        <f t="shared" si="31"/>
+        <v>103</v>
+      </c>
+      <c r="AY97" t="str">
+        <f t="shared" si="32"/>
+        <v>103,</v>
+      </c>
+    </row>
+    <row r="98" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H98">
         <v>98</v>
       </c>
       <c r="I98">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.5656340004316642</v>
       </c>
       <c r="J98">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.54463903501502731</v>
       </c>
       <c r="K98">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>154.46390350150276</v>
       </c>
       <c r="L98">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>154</v>
       </c>
       <c r="M98" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>154,</v>
       </c>
-    </row>
-    <row r="99" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="AT98">
+        <v>98</v>
+      </c>
+      <c r="AU98">
+        <f t="shared" si="28"/>
+        <v>6.1575216010359943</v>
+      </c>
+      <c r="AV98">
+        <f t="shared" si="29"/>
+        <v>-0.12533323356430465</v>
+      </c>
+      <c r="AW98">
+        <f t="shared" si="30"/>
+        <v>111.52001272055115</v>
+      </c>
+      <c r="AX98">
+        <f t="shared" si="31"/>
+        <v>111</v>
+      </c>
+      <c r="AY98" t="str">
+        <f t="shared" si="32"/>
+        <v>111,</v>
+      </c>
+    </row>
+    <row r="99" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H99">
         <v>99</v>
       </c>
       <c r="I99">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.5918139392115793</v>
       </c>
       <c r="J99">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.52249856471594891</v>
       </c>
       <c r="K99">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>152.24985647159488</v>
       </c>
       <c r="L99">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>152</v>
       </c>
       <c r="M99" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>152,</v>
       </c>
-    </row>
-    <row r="100" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="AT99">
+        <v>99</v>
+      </c>
+      <c r="AU99">
+        <f t="shared" si="28"/>
+        <v>6.2203534541077907</v>
+      </c>
+      <c r="AV99">
+        <f t="shared" si="29"/>
+        <v>-6.2790519529313263E-2</v>
+      </c>
+      <c r="AW99">
+        <f t="shared" si="30"/>
+        <v>119.49420876001255</v>
+      </c>
+      <c r="AX99">
+        <f t="shared" si="31"/>
+        <v>119</v>
+      </c>
+      <c r="AY99" t="str">
+        <f t="shared" si="32"/>
+        <v>119,</v>
+      </c>
+    </row>
+    <row r="100" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H100">
         <v>100</v>
       </c>
       <c r="I100">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.6179938779914944</v>
       </c>
       <c r="J100">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="K100">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>150</v>
       </c>
       <c r="L100">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>150</v>
       </c>
       <c r="M100" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>150,</v>
       </c>
-    </row>
-    <row r="101" spans="8:13" x14ac:dyDescent="0.2">
+      <c r="AT100">
+        <v>100</v>
+      </c>
+      <c r="AU100">
+        <f t="shared" si="28"/>
+        <v>6.2831853071795862</v>
+      </c>
+      <c r="AV100">
+        <f t="shared" si="29"/>
+        <v>-2.45029690981724E-16</v>
+      </c>
+      <c r="AW100">
+        <f t="shared" si="30"/>
+        <v>127.49999999999997</v>
+      </c>
+      <c r="AX100">
+        <f t="shared" si="31"/>
+        <v>127</v>
+      </c>
+      <c r="AY100" t="str">
+        <f t="shared" si="32"/>
+        <v>127,</v>
+      </c>
+    </row>
+    <row r="101" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H101">
         <v>101</v>
       </c>
       <c r="I101">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.6441738167714091</v>
       </c>
       <c r="J101">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.47715876025960863</v>
       </c>
       <c r="K101">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>147.71587602596085</v>
       </c>
       <c r="L101">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>147</v>
       </c>
       <c r="M101" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>147,</v>
       </c>
     </row>
-    <row r="102" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H102">
         <v>102</v>
       </c>
       <c r="I102">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.6703537555513241</v>
       </c>
       <c r="J102">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.45399049973954686</v>
       </c>
       <c r="K102">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>145.39904997395467</v>
       </c>
       <c r="L102">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>145</v>
       </c>
       <c r="M102" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>145,</v>
       </c>
     </row>
-    <row r="103" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H103">
         <v>103</v>
       </c>
       <c r="I103">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.6965336943312388</v>
       </c>
       <c r="J103">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.43051109680829552</v>
       </c>
       <c r="K103">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>143.05110968082954</v>
       </c>
       <c r="L103">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>143</v>
       </c>
       <c r="M103" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>143,</v>
       </c>
     </row>
-    <row r="104" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H104">
         <v>104</v>
       </c>
       <c r="I104">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.7227136331111543</v>
       </c>
       <c r="J104">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.40673664307580004</v>
       </c>
       <c r="K104">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>140.67366430758003</v>
       </c>
       <c r="L104">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>140</v>
       </c>
       <c r="M104" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>140,</v>
       </c>
     </row>
-    <row r="105" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H105">
         <v>105</v>
       </c>
       <c r="I105">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.748893571891069</v>
       </c>
       <c r="J105">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.38268343236508989</v>
       </c>
       <c r="K105">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>138.26834323650897</v>
       </c>
       <c r="L105">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>138</v>
       </c>
       <c r="M105" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>138,</v>
       </c>
     </row>
-    <row r="106" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H106">
         <v>106</v>
       </c>
       <c r="I106">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.7750735106709836</v>
       </c>
       <c r="J106">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.35836794954530066</v>
       </c>
       <c r="K106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>135.83679495453006</v>
       </c>
       <c r="L106">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>135</v>
       </c>
       <c r="M106" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>135,</v>
       </c>
     </row>
-    <row r="107" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H107">
         <v>107</v>
       </c>
       <c r="I107">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.8012534494508992</v>
       </c>
       <c r="J107">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.33380685923377074</v>
       </c>
       <c r="K107">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>133.38068592337709</v>
       </c>
       <c r="L107">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>133</v>
       </c>
       <c r="M107" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>133,</v>
       </c>
     </row>
-    <row r="108" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H108">
         <v>108</v>
       </c>
       <c r="I108">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.8274333882308138</v>
       </c>
       <c r="J108">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.30901699437494751</v>
       </c>
       <c r="K108">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>130.90169943749476</v>
       </c>
       <c r="L108">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>130</v>
       </c>
       <c r="M108" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>130,</v>
       </c>
     </row>
-    <row r="109" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H109">
         <v>109</v>
       </c>
       <c r="I109">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.8536133270107289</v>
       </c>
       <c r="J109">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.28401534470392259</v>
       </c>
       <c r="K109">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>128.40153447039228</v>
       </c>
       <c r="L109">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>128</v>
       </c>
       <c r="M109" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>128,</v>
       </c>
     </row>
-    <row r="110" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H110">
         <v>110</v>
       </c>
       <c r="I110">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.8797932657906435</v>
       </c>
       <c r="J110">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.25881904510252102</v>
       </c>
       <c r="K110">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>125.88190451025208</v>
       </c>
       <c r="L110">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>125</v>
       </c>
       <c r="M110" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>125,</v>
       </c>
     </row>
-    <row r="111" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H111">
         <v>111</v>
       </c>
       <c r="I111">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.9059732045705586</v>
       </c>
       <c r="J111">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.23344536385590553</v>
       </c>
       <c r="K111">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>123.34453638559054</v>
       </c>
       <c r="L111">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>123</v>
       </c>
       <c r="M111" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>123,</v>
       </c>
     </row>
-    <row r="112" spans="8:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="8:51" x14ac:dyDescent="0.2">
       <c r="H112">
         <v>112</v>
       </c>
       <c r="I112">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.9321531433504737</v>
       </c>
       <c r="J112">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.20791169081775931</v>
       </c>
       <c r="K112">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>120.79116908177595</v>
       </c>
       <c r="L112">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>120</v>
       </c>
       <c r="M112" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>120,</v>
       </c>
     </row>
@@ -7214,23 +9510,23 @@
         <v>113</v>
       </c>
       <c r="I113">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.9583330821303884</v>
       </c>
       <c r="J113">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.18223552549214772</v>
       </c>
       <c r="K113">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>118.22355254921477</v>
       </c>
       <c r="L113">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>118</v>
       </c>
       <c r="M113" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>118,</v>
       </c>
     </row>
@@ -7239,23 +9535,23 @@
         <v>114</v>
       </c>
       <c r="I114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>2.9845130209103035</v>
       </c>
       <c r="J114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.15643446504023098</v>
       </c>
       <c r="K114">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>115.64344650402309</v>
       </c>
       <c r="L114">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>115</v>
       </c>
       <c r="M114" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>115,</v>
       </c>
     </row>
@@ -7264,23 +9560,23 @@
         <v>115</v>
       </c>
       <c r="I115">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>3.0106929596902186</v>
       </c>
       <c r="J115">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.13052619222005157</v>
       </c>
       <c r="K115">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>113.05261922200516</v>
       </c>
       <c r="L115">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>113</v>
       </c>
       <c r="M115" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>113,</v>
       </c>
     </row>
@@ -7289,23 +9585,23 @@
         <v>116</v>
       </c>
       <c r="I116">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>3.0368728984701332</v>
       </c>
       <c r="J116">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>0.10452846326765373</v>
       </c>
       <c r="K116">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>110.45284632676538</v>
       </c>
       <c r="L116">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>110</v>
       </c>
       <c r="M116" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>110,</v>
       </c>
     </row>
@@ -7314,23 +9610,23 @@
         <v>117</v>
       </c>
       <c r="I117">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>3.0630528372500483</v>
       </c>
       <c r="J117">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>7.8459095727845068E-2</v>
       </c>
       <c r="K117">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>107.84590957278451</v>
       </c>
       <c r="L117">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>107</v>
       </c>
       <c r="M117" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>107,</v>
       </c>
     </row>
@@ -7339,23 +9635,23 @@
         <v>118</v>
       </c>
       <c r="I118">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>3.0892327760299629</v>
       </c>
       <c r="J118">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>5.2335956242944251E-2</v>
       </c>
       <c r="K118">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>105.23359562429442</v>
       </c>
       <c r="L118">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>105</v>
       </c>
       <c r="M118" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>105,</v>
       </c>
     </row>
@@ -7364,23 +9660,23 @@
         <v>119</v>
       </c>
       <c r="I119">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>3.1154127148098785</v>
       </c>
       <c r="J119">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>2.6176948307872979E-2</v>
       </c>
       <c r="K119">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>102.61769483078729</v>
       </c>
       <c r="L119">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>102</v>
       </c>
       <c r="M119" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>102,</v>
       </c>
     </row>
@@ -7389,23 +9685,23 @@
         <v>120</v>
       </c>
       <c r="I120">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>3.1415926535897931</v>
       </c>
       <c r="J120">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>1.22514845490862E-16</v>
       </c>
       <c r="K120">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>100.00000000000003</v>
       </c>
       <c r="L120">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="M120" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>100,</v>
       </c>
     </row>
@@ -7414,23 +9710,23 @@
         <v>121</v>
       </c>
       <c r="I121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>3.1677725923697078</v>
       </c>
       <c r="J121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>-2.6176948307872733E-2</v>
       </c>
       <c r="K121">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>97.382305169212728</v>
       </c>
       <c r="L121">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>97</v>
       </c>
       <c r="M121" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>97,</v>
       </c>
     </row>
@@ -7439,23 +9735,23 @@
         <v>122</v>
       </c>
       <c r="I122">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>3.1939525311496229</v>
       </c>
       <c r="J122">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>-5.2335956242943557E-2</v>
       </c>
       <c r="K122">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>94.766404375705648</v>
       </c>
       <c r="L122">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>94</v>
       </c>
       <c r="M122" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>94,</v>
       </c>
     </row>
@@ -7464,23 +9760,23 @@
         <v>123</v>
       </c>
       <c r="I123">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>3.2201324699295375</v>
       </c>
       <c r="J123">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>-7.8459095727844375E-2</v>
       </c>
       <c r="K123">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>92.154090427215564</v>
       </c>
       <c r="L123">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>92</v>
       </c>
       <c r="M123" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>92,</v>
       </c>
     </row>
@@ -7489,23 +9785,23 @@
         <v>124</v>
       </c>
       <c r="I124">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>3.246312408709453</v>
       </c>
       <c r="J124">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>-0.1045284632676535</v>
       </c>
       <c r="K124">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>89.547153673234646</v>
       </c>
       <c r="L124">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>89</v>
       </c>
       <c r="M124" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>89,</v>
       </c>
     </row>
@@ -7514,23 +9810,23 @@
         <v>125</v>
       </c>
       <c r="I125">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>3.2724923474893681</v>
       </c>
       <c r="J125">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>-0.13052619222005177</v>
       </c>
       <c r="K125">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>86.947380777994809</v>
       </c>
       <c r="L125">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>86</v>
       </c>
       <c r="M125" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>86,</v>
       </c>
     </row>
@@ -7539,23 +9835,23 @@
         <v>126</v>
       </c>
       <c r="I126">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>3.2986722862692828</v>
       </c>
       <c r="J126">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>-0.15643446504023073</v>
       </c>
       <c r="K126">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>84.356553495976925</v>
       </c>
       <c r="L126">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>84</v>
       </c>
       <c r="M126" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>84,</v>
       </c>
     </row>
@@ -7564,23 +9860,23 @@
         <v>127</v>
       </c>
       <c r="I127">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>3.3248522250491979</v>
       </c>
       <c r="J127">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>-0.18223552549214747</v>
       </c>
       <c r="K127">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>81.776447450785241</v>
       </c>
       <c r="L127">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>81</v>
       </c>
       <c r="M127" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>81,</v>
       </c>
     </row>
@@ -7589,23 +9885,23 @@
         <v>128</v>
       </c>
       <c r="I128">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>3.3510321638291125</v>
       </c>
       <c r="J128">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>-0.20791169081775907</v>
       </c>
       <c r="K128">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>79.208830918224095</v>
       </c>
       <c r="L128">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>79</v>
       </c>
       <c r="M128" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>79,</v>
       </c>
     </row>
@@ -7614,23 +9910,23 @@
         <v>129</v>
       </c>
       <c r="I129">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>3.3772121026090276</v>
       </c>
       <c r="J129">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>-0.23344536385590528</v>
       </c>
       <c r="K129">
-        <f t="shared" si="20"/>
+        <f t="shared" si="25"/>
         <v>76.65546361440947</v>
       </c>
       <c r="L129">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>76</v>
       </c>
       <c r="M129" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>76,</v>
       </c>
     </row>
@@ -7639,23 +9935,23 @@
         <v>130</v>
       </c>
       <c r="I130">
-        <f t="shared" ref="I130:I193" si="23">H130/240*2*PI()</f>
+        <f t="shared" ref="I130:I193" si="33">H130/240*2*PI()</f>
         <v>3.4033920413889422</v>
       </c>
       <c r="J130">
-        <f t="shared" ref="J130:J193" si="24">SIN(I130)</f>
+        <f t="shared" ref="J130:J193" si="34">SIN(I130)</f>
         <v>-0.25881904510252035</v>
       </c>
       <c r="K130">
-        <f t="shared" ref="K130:K193" si="25">(J130+1)*60000/300/2</f>
+        <f t="shared" ref="K130:K193" si="35">(J130+1)*60000/300/2</f>
         <v>74.118095489747972</v>
       </c>
       <c r="L130">
-        <f t="shared" ref="L130:L193" si="26">FLOOR(K130, 1)</f>
+        <f t="shared" ref="L130:L193" si="36">FLOOR(K130, 1)</f>
         <v>74</v>
       </c>
       <c r="M130" t="str">
-        <f t="shared" ref="M130:M193" si="27">L130&amp;","</f>
+        <f t="shared" ref="M130:M193" si="37">L130&amp;","</f>
         <v>74,</v>
       </c>
     </row>
@@ -7664,23 +9960,23 @@
         <v>131</v>
       </c>
       <c r="I131">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>3.4295719801688573</v>
       </c>
       <c r="J131">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.28401534470392237</v>
       </c>
       <c r="K131">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>71.598465529607765</v>
       </c>
       <c r="L131">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>71</v>
       </c>
       <c r="M131" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>71,</v>
       </c>
     </row>
@@ -7689,23 +9985,23 @@
         <v>132</v>
       </c>
       <c r="I132">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>3.4557519189487729</v>
       </c>
       <c r="J132">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.30901699437494773</v>
       </c>
       <c r="K132">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>69.09830056250523</v>
       </c>
       <c r="L132">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>69</v>
       </c>
       <c r="M132" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>69,</v>
       </c>
     </row>
@@ -7714,23 +10010,23 @@
         <v>133</v>
       </c>
       <c r="I133">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>3.4819318577286875</v>
       </c>
       <c r="J133">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.33380685923377096</v>
       </c>
       <c r="K133">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>66.619314076622899</v>
       </c>
       <c r="L133">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>66</v>
       </c>
       <c r="M133" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>66,</v>
       </c>
     </row>
@@ -7739,23 +10035,23 @@
         <v>134</v>
       </c>
       <c r="I134">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>3.5081117965086026</v>
       </c>
       <c r="J134">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.35836794954530043</v>
       </c>
       <c r="K134">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>64.163205045469951</v>
       </c>
       <c r="L134">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>64</v>
       </c>
       <c r="M134" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>64,</v>
       </c>
     </row>
@@ -7764,23 +10060,23 @@
         <v>135</v>
       </c>
       <c r="I135">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>3.5342917352885173</v>
       </c>
       <c r="J135">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.38268343236508967</v>
       </c>
       <c r="K135">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>61.731656763491031</v>
       </c>
       <c r="L135">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>61</v>
       </c>
       <c r="M135" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>61,</v>
       </c>
     </row>
@@ -7789,23 +10085,23 @@
         <v>136</v>
       </c>
       <c r="I136">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>3.5604716740684319</v>
       </c>
       <c r="J136">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.40673664307579982</v>
       </c>
       <c r="K136">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>59.326335692420024</v>
       </c>
       <c r="L136">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>59</v>
       </c>
       <c r="M136" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>59,</v>
       </c>
     </row>
@@ -7814,23 +10110,23 @@
         <v>137</v>
       </c>
       <c r="I137">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>3.586651612848347</v>
       </c>
       <c r="J137">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.43051109680829486</v>
       </c>
       <c r="K137">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>56.948890319170523</v>
       </c>
       <c r="L137">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>56</v>
       </c>
       <c r="M137" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>56,</v>
       </c>
     </row>
@@ -7839,23 +10135,23 @@
         <v>138</v>
       </c>
       <c r="I138">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>3.6128315516282616</v>
       </c>
       <c r="J138">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.45399049973954625</v>
       </c>
       <c r="K138">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>54.600950026045368</v>
       </c>
       <c r="L138">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>54</v>
       </c>
       <c r="M138" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>54,</v>
       </c>
     </row>
@@ -7864,23 +10160,23 @@
         <v>139</v>
       </c>
       <c r="I139">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>3.6390114904081772</v>
       </c>
       <c r="J139">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.47715876025960841</v>
       </c>
       <c r="K139">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>52.284123974039161</v>
       </c>
       <c r="L139">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>52</v>
       </c>
       <c r="M139" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>52,</v>
       </c>
     </row>
@@ -7889,23 +10185,23 @@
         <v>140</v>
       </c>
       <c r="I140">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>3.6651914291880923</v>
       </c>
       <c r="J140">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.50000000000000011</v>
       </c>
       <c r="K140">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>49.999999999999986</v>
       </c>
       <c r="L140">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>50</v>
       </c>
       <c r="M140" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>50,</v>
       </c>
     </row>
@@ -7914,23 +10210,23 @@
         <v>141</v>
       </c>
       <c r="I141">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>3.6913713679680069</v>
       </c>
       <c r="J141">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.52249856471594869</v>
       </c>
       <c r="K141">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>47.750143528405133</v>
       </c>
       <c r="L141">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>47</v>
       </c>
       <c r="M141" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>47,</v>
       </c>
     </row>
@@ -7939,23 +10235,23 @@
         <v>142</v>
       </c>
       <c r="I142">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>3.717551306747922</v>
       </c>
       <c r="J142">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.54463903501502708</v>
       </c>
       <c r="K142">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>45.536096498497294</v>
       </c>
       <c r="L142">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>45</v>
       </c>
       <c r="M142" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>45,</v>
       </c>
     </row>
@@ -7964,23 +10260,23 @@
         <v>143</v>
       </c>
       <c r="I143">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>3.7437312455278366</v>
       </c>
       <c r="J143">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.56640623692483261</v>
       </c>
       <c r="K143">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>43.35937630751674</v>
       </c>
       <c r="L143">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>43</v>
       </c>
       <c r="M143" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>43,</v>
       </c>
     </row>
@@ -7989,23 +10285,23 @@
         <v>144</v>
       </c>
       <c r="I144">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>3.7699111843077517</v>
       </c>
       <c r="J144">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.58778525229247303</v>
       </c>
       <c r="K144">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>41.2214747707527</v>
       </c>
       <c r="L144">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>41</v>
       </c>
       <c r="M144" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>41,</v>
       </c>
     </row>
@@ -8014,23 +10310,23 @@
         <v>145</v>
       </c>
       <c r="I145">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>3.7960911230876664</v>
       </c>
       <c r="J145">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.60876142900872032</v>
       </c>
       <c r="K145">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>39.123857099127967</v>
       </c>
       <c r="L145">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>39</v>
       </c>
       <c r="M145" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>39,</v>
       </c>
     </row>
@@ -8039,23 +10335,23 @@
         <v>146</v>
       </c>
       <c r="I146">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>3.8222710618675815</v>
       </c>
       <c r="J146">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.62932039104983717</v>
       </c>
       <c r="K146">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>37.067960895016284</v>
       </c>
       <c r="L146">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>37</v>
       </c>
       <c r="M146" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>37,</v>
       </c>
     </row>
@@ -8064,23 +10360,23 @@
         <v>147</v>
       </c>
       <c r="I147">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>3.848451000647497</v>
       </c>
       <c r="J147">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.64944804833018388</v>
       </c>
       <c r="K147">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>35.055195166981612</v>
       </c>
       <c r="L147">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>35</v>
       </c>
       <c r="M147" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>35,</v>
       </c>
     </row>
@@ -8089,23 +10385,23 @@
         <v>148</v>
       </c>
       <c r="I148">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>3.8746309394274117</v>
       </c>
       <c r="J148">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.66913060635885824</v>
       </c>
       <c r="K148">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>33.086939364114173</v>
       </c>
       <c r="L148">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>33</v>
       </c>
       <c r="M148" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>33,</v>
       </c>
     </row>
@@ -8114,23 +10410,23 @@
         <v>149</v>
       </c>
       <c r="I149">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>3.9008108782073267</v>
       </c>
       <c r="J149">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.68835457569375413</v>
       </c>
       <c r="K149">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>31.164542430624589</v>
       </c>
       <c r="L149">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>31</v>
       </c>
       <c r="M149" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>31,</v>
       </c>
     </row>
@@ -8139,23 +10435,23 @@
         <v>150</v>
       </c>
       <c r="I150">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>3.9269908169872414</v>
       </c>
       <c r="J150">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.70710678118654746</v>
       </c>
       <c r="K150">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>29.289321881345252</v>
       </c>
       <c r="L150">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>29</v>
       </c>
       <c r="M150" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>29,</v>
       </c>
     </row>
@@ -8164,23 +10460,23 @@
         <v>151</v>
       </c>
       <c r="I151">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>3.953170755767156</v>
       </c>
       <c r="J151">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.7253743710122873</v>
       </c>
       <c r="K151">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>27.462562898771271</v>
       </c>
       <c r="L151">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>27</v>
       </c>
       <c r="M151" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>27,</v>
       </c>
     </row>
@@ -8189,23 +10485,23 @@
         <v>152</v>
       </c>
       <c r="I152">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>3.9793506945470711</v>
       </c>
       <c r="J152">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.74314482547739402</v>
       </c>
       <c r="K152">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>25.685517452260598</v>
       </c>
       <c r="L152">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>25</v>
       </c>
       <c r="M152" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>25,</v>
       </c>
     </row>
@@ -8214,23 +10510,23 @@
         <v>153</v>
       </c>
       <c r="I153">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.0055306333269858</v>
       </c>
       <c r="J153">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.7604059656000306</v>
       </c>
       <c r="K153">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>23.95940343999694</v>
       </c>
       <c r="L153">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>23</v>
       </c>
       <c r="M153" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>23,</v>
       </c>
     </row>
@@ -8239,23 +10535,23 @@
         <v>154</v>
       </c>
       <c r="I154">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.0317105721069018</v>
       </c>
       <c r="J154">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.77714596145697112</v>
       </c>
       <c r="K154">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>22.285403854302889</v>
       </c>
       <c r="L154">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>22</v>
       </c>
       <c r="M154" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>22,</v>
       </c>
     </row>
@@ -8264,23 +10560,23 @@
         <v>155</v>
       </c>
       <c r="I155">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.057890510886816</v>
       </c>
       <c r="J155">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.79335334029123494</v>
       </c>
       <c r="K155">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>20.664665970876506</v>
       </c>
       <c r="L155">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>20</v>
       </c>
       <c r="M155" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>20,</v>
       </c>
     </row>
@@ -8289,23 +10585,23 @@
         <v>156</v>
       </c>
       <c r="I156">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.0840704496667311</v>
       </c>
       <c r="J156">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.80901699437494734</v>
       </c>
       <c r="K156">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>19.098300562505266</v>
       </c>
       <c r="L156">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>19</v>
       </c>
       <c r="M156" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>19,</v>
       </c>
     </row>
@@ -8314,23 +10610,23 @@
         <v>157</v>
       </c>
       <c r="I157">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.1102503884466461</v>
       </c>
       <c r="J157">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.8241261886220157</v>
       </c>
       <c r="K157">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>17.587381137798431</v>
       </c>
       <c r="L157">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>17</v>
       </c>
       <c r="M157" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>17,</v>
       </c>
     </row>
@@ -8339,23 +10635,23 @@
         <v>158</v>
       </c>
       <c r="I158">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.1364303272265612</v>
       </c>
       <c r="J158">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.83867056794542405</v>
       </c>
       <c r="K158">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>16.132943205457597</v>
       </c>
       <c r="L158">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>16</v>
       </c>
       <c r="M158" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>16,</v>
       </c>
     </row>
@@ -8364,23 +10660,23 @@
         <v>159</v>
       </c>
       <c r="I159">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.1626102660064754</v>
       </c>
       <c r="J159">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.85264016435409196</v>
       </c>
       <c r="K159">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>14.735983564590803</v>
       </c>
       <c r="L159">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>14</v>
       </c>
       <c r="M159" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>14,</v>
       </c>
     </row>
@@ -8389,23 +10685,23 @@
         <v>160</v>
       </c>
       <c r="I160">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.1887902047863905</v>
       </c>
       <c r="J160">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.86602540378443837</v>
       </c>
       <c r="K160">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>13.397459621556163</v>
       </c>
       <c r="L160">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>13</v>
       </c>
       <c r="M160" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>13,</v>
       </c>
     </row>
@@ -8414,23 +10710,23 @@
         <v>161</v>
       </c>
       <c r="I161">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.2149701435663056</v>
       </c>
       <c r="J161">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.87881711266196527</v>
       </c>
       <c r="K161">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>12.118288733803473</v>
       </c>
       <c r="L161">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>12</v>
       </c>
       <c r="M161" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>12,</v>
       </c>
     </row>
@@ -8439,23 +10735,23 @@
         <v>162</v>
       </c>
       <c r="I162">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.2411500823462207</v>
       </c>
       <c r="J162">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.89100652418836779</v>
       </c>
       <c r="K162">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>10.899347581163221</v>
       </c>
       <c r="L162">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="M162" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>10,</v>
       </c>
     </row>
@@ -8464,23 +10760,23 @@
         <v>163</v>
       </c>
       <c r="I163">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.2673300211261358</v>
       </c>
       <c r="J163">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.90258528434986063</v>
       </c>
       <c r="K163">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>9.7414715650139367</v>
       </c>
       <c r="L163">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>9</v>
       </c>
       <c r="M163" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>9,</v>
       </c>
     </row>
@@ -8489,23 +10785,23 @@
         <v>164</v>
       </c>
       <c r="I164">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.2935099599060509</v>
       </c>
       <c r="J164">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.91354545764260098</v>
       </c>
       <c r="K164">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>8.6454542357399013</v>
       </c>
       <c r="L164">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="M164" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>8,</v>
       </c>
     </row>
@@ -8514,23 +10810,23 @@
         <v>165</v>
       </c>
       <c r="I165">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.3196898986859651</v>
       </c>
       <c r="J165">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.92387953251128652</v>
       </c>
       <c r="K165">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>7.6120467488713484</v>
       </c>
       <c r="L165">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="M165" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>7,</v>
       </c>
     </row>
@@ -8539,23 +10835,23 @@
         <v>166</v>
       </c>
       <c r="I166">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.3458698374658802</v>
       </c>
       <c r="J166">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.93358042649720163</v>
       </c>
       <c r="K166">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>6.6419573502798368</v>
       </c>
       <c r="L166">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>6</v>
       </c>
       <c r="M166" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>6,</v>
       </c>
     </row>
@@ -8564,23 +10860,23 @@
         <v>167</v>
       </c>
       <c r="I167">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.3720497762457953</v>
       </c>
       <c r="J167">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.94264149109217832</v>
       </c>
       <c r="K167">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>5.7358508907821681</v>
       </c>
       <c r="L167">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="M167" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>5,</v>
       </c>
     </row>
@@ -8589,23 +10885,23 @@
         <v>168</v>
       </c>
       <c r="I168">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.3982297150257104</v>
       </c>
       <c r="J168">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.95105651629515353</v>
       </c>
       <c r="K168">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>4.8943483704846473</v>
       </c>
       <c r="L168">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="M168" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>4,</v>
       </c>
     </row>
@@ -8614,23 +10910,23 @@
         <v>169</v>
       </c>
       <c r="I169">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.4244096538056255</v>
       </c>
       <c r="J169">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.95881973486819305</v>
       </c>
       <c r="K169">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>4.1180265131806948</v>
       </c>
       <c r="L169">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="M169" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>4,</v>
       </c>
     </row>
@@ -8639,23 +10935,23 @@
         <v>170</v>
       </c>
       <c r="I170">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.4505895925855405</v>
       </c>
       <c r="J170">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.96592582628906831</v>
       </c>
       <c r="K170">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>3.4074173710931688</v>
       </c>
       <c r="L170">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="M170" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>3,</v>
       </c>
     </row>
@@ -8664,23 +10960,23 @@
         <v>171</v>
       </c>
       <c r="I171">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.4767695313654556</v>
       </c>
       <c r="J171">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.97236992039767667</v>
       </c>
       <c r="K171">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>2.7630079602323332</v>
       </c>
       <c r="L171">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="M171" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>2,</v>
       </c>
     </row>
@@ -8689,23 +10985,23 @@
         <v>172</v>
       </c>
       <c r="I172">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.5029494701453698</v>
       </c>
       <c r="J172">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.97814760073380558</v>
       </c>
       <c r="K172">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>2.1852399266194422</v>
       </c>
       <c r="L172">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="M172" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>2,</v>
       </c>
     </row>
@@ -8714,23 +11010,23 @@
         <v>173</v>
       </c>
       <c r="I173">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.5291294089252849</v>
       </c>
       <c r="J173">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.98325490756395451</v>
       </c>
       <c r="K173">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1.6745092436045494</v>
       </c>
       <c r="L173">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="M173" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>1,</v>
       </c>
     </row>
@@ -8739,23 +11035,23 @@
         <v>174</v>
       </c>
       <c r="I174">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.5553093477052</v>
       </c>
       <c r="J174">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.98768834059513766</v>
       </c>
       <c r="K174">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1.2311659404862341</v>
       </c>
       <c r="L174">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="M174" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>1,</v>
       </c>
     </row>
@@ -8764,23 +11060,23 @@
         <v>175</v>
       </c>
       <c r="I175">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.5814892864851151</v>
       </c>
       <c r="J175">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.99144486137381038</v>
       </c>
       <c r="K175">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>0.85551386261896178</v>
       </c>
       <c r="L175">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M175" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>0,</v>
       </c>
     </row>
@@ -8789,23 +11085,23 @@
         <v>176</v>
       </c>
       <c r="I176">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.6076692252650293</v>
       </c>
       <c r="J176">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.99452189536827329</v>
       </c>
       <c r="K176">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>0.54781046317267101</v>
       </c>
       <c r="L176">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M176" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>0,</v>
       </c>
     </row>
@@ -8814,23 +11110,23 @@
         <v>177</v>
       </c>
       <c r="I177">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.6338491640449453</v>
       </c>
       <c r="J177">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.99691733373312796</v>
       </c>
       <c r="K177">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>0.30826662668720362</v>
       </c>
       <c r="L177">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M177" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>0,</v>
       </c>
     </row>
@@ -8839,23 +11135,23 @@
         <v>178</v>
       </c>
       <c r="I178">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.6600291028248604</v>
       </c>
       <c r="J178">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.99862953475457394</v>
       </c>
       <c r="K178">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>0.13704652454260557</v>
       </c>
       <c r="L178">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M178" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>0,</v>
       </c>
     </row>
@@ -8864,23 +11160,23 @@
         <v>179</v>
       </c>
       <c r="I179">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.6862090416047746</v>
       </c>
       <c r="J179">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.99965732497555726</v>
       </c>
       <c r="K179">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>3.4267502444274012E-2</v>
       </c>
       <c r="L179">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M179" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>0,</v>
       </c>
     </row>
@@ -8889,23 +11185,23 @@
         <v>180</v>
       </c>
       <c r="I180">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.7123889803846897</v>
       </c>
       <c r="J180">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-1</v>
       </c>
       <c r="K180">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="L180">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M180" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>0,</v>
       </c>
     </row>
@@ -8914,23 +11210,23 @@
         <v>181</v>
       </c>
       <c r="I181">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.7385689191646048</v>
       </c>
       <c r="J181">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.99965732497555726</v>
       </c>
       <c r="K181">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>3.4267502444274012E-2</v>
       </c>
       <c r="L181">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M181" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>0,</v>
       </c>
     </row>
@@ -8939,23 +11235,23 @@
         <v>182</v>
       </c>
       <c r="I182">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.764748857944519</v>
       </c>
       <c r="J182">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.99862953475457394</v>
       </c>
       <c r="K182">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>0.13704652454260557</v>
       </c>
       <c r="L182">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M182" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>0,</v>
       </c>
     </row>
@@ -8964,23 +11260,23 @@
         <v>183</v>
       </c>
       <c r="I183">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.7909287967244341</v>
       </c>
       <c r="J183">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.99691733373312807</v>
       </c>
       <c r="K183">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>0.30826662668719251</v>
       </c>
       <c r="L183">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M183" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>0,</v>
       </c>
     </row>
@@ -8989,23 +11285,23 @@
         <v>184</v>
       </c>
       <c r="I184">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.81710873550435</v>
       </c>
       <c r="J184">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.99452189536827329</v>
       </c>
       <c r="K184">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>0.54781046317267101</v>
       </c>
       <c r="L184">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M184" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>0,</v>
       </c>
     </row>
@@ -9014,23 +11310,23 @@
         <v>185</v>
       </c>
       <c r="I185">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.8432886742842642</v>
       </c>
       <c r="J185">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.99144486137381049</v>
       </c>
       <c r="K185">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>0.85551386261895057</v>
       </c>
       <c r="L185">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M185" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>0,</v>
       </c>
     </row>
@@ -9039,23 +11335,23 @@
         <v>186</v>
       </c>
       <c r="I186">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.8694686130641793</v>
       </c>
       <c r="J186">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.98768834059513777</v>
       </c>
       <c r="K186">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1.231165940486223</v>
       </c>
       <c r="L186">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="M186" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>1,</v>
       </c>
     </row>
@@ -9064,23 +11360,23 @@
         <v>187</v>
       </c>
       <c r="I187">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.8956485518440944</v>
       </c>
       <c r="J187">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.98325490756395462</v>
       </c>
       <c r="K187">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>1.6745092436045383</v>
       </c>
       <c r="L187">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="M187" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>1,</v>
       </c>
     </row>
@@ -9089,23 +11385,23 @@
         <v>188</v>
       </c>
       <c r="I188">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.9218284906240095</v>
       </c>
       <c r="J188">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.97814760073380558</v>
       </c>
       <c r="K188">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>2.1852399266194422</v>
       </c>
       <c r="L188">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="M188" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>2,</v>
       </c>
     </row>
@@ -9114,23 +11410,23 @@
         <v>189</v>
       </c>
       <c r="I189">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.9480084294039237</v>
       </c>
       <c r="J189">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.97236992039767678</v>
       </c>
       <c r="K189">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>2.7630079602323221</v>
       </c>
       <c r="L189">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="M189" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>2,</v>
       </c>
     </row>
@@ -9139,23 +11435,23 @@
         <v>190</v>
       </c>
       <c r="I190">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>4.9741883681838388</v>
       </c>
       <c r="J190">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.96592582628906842</v>
       </c>
       <c r="K190">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>3.4074173710931577</v>
       </c>
       <c r="L190">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="M190" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>3,</v>
       </c>
     </row>
@@ -9164,23 +11460,23 @@
         <v>191</v>
       </c>
       <c r="I191">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>5.0003683069637539</v>
       </c>
       <c r="J191">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.95881973486819316</v>
       </c>
       <c r="K191">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>4.1180265131806841</v>
       </c>
       <c r="L191">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="M191" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>4,</v>
       </c>
     </row>
@@ -9189,23 +11485,23 @@
         <v>192</v>
       </c>
       <c r="I192">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>5.026548245743669</v>
       </c>
       <c r="J192">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.95105651629515364</v>
       </c>
       <c r="K192">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>4.8943483704846358</v>
       </c>
       <c r="L192">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="M192" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>4,</v>
       </c>
     </row>
@@ -9214,23 +11510,23 @@
         <v>193</v>
       </c>
       <c r="I193">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>5.0527281845235841</v>
       </c>
       <c r="J193">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>-0.94264149109217843</v>
       </c>
       <c r="K193">
-        <f t="shared" si="25"/>
+        <f t="shared" si="35"/>
         <v>5.7358508907821575</v>
       </c>
       <c r="L193">
-        <f t="shared" si="26"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="M193" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="37"/>
         <v>5,</v>
       </c>
     </row>
@@ -9239,23 +11535,23 @@
         <v>194</v>
       </c>
       <c r="I194">
-        <f t="shared" ref="I194:I240" si="28">H194/240*2*PI()</f>
+        <f t="shared" ref="I194:I240" si="38">H194/240*2*PI()</f>
         <v>5.0789081233034992</v>
       </c>
       <c r="J194">
-        <f t="shared" ref="J194:J240" si="29">SIN(I194)</f>
+        <f t="shared" ref="J194:J240" si="39">SIN(I194)</f>
         <v>-0.93358042649720174</v>
       </c>
       <c r="K194">
-        <f t="shared" ref="K194:K240" si="30">(J194+1)*60000/300/2</f>
+        <f t="shared" ref="K194:K240" si="40">(J194+1)*60000/300/2</f>
         <v>6.6419573502798261</v>
       </c>
       <c r="L194">
-        <f t="shared" ref="L194:L240" si="31">FLOOR(K194, 1)</f>
+        <f t="shared" ref="L194:L240" si="41">FLOOR(K194, 1)</f>
         <v>6</v>
       </c>
       <c r="M194" t="str">
-        <f t="shared" ref="M194:M240" si="32">L194&amp;","</f>
+        <f t="shared" ref="M194:M240" si="42">L194&amp;","</f>
         <v>6,</v>
       </c>
     </row>
@@ -9264,23 +11560,23 @@
         <v>195</v>
       </c>
       <c r="I195">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.1050880620834143</v>
       </c>
       <c r="J195">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.92387953251128663</v>
       </c>
       <c r="K195">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>7.6120467488713377</v>
       </c>
       <c r="L195">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>7</v>
       </c>
       <c r="M195" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>7,</v>
       </c>
     </row>
@@ -9289,23 +11585,23 @@
         <v>196</v>
       </c>
       <c r="I196">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.1312680008633285</v>
       </c>
       <c r="J196">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.91354545764260109</v>
       </c>
       <c r="K196">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>8.6454542357398907</v>
       </c>
       <c r="L196">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>8</v>
       </c>
       <c r="M196" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>8,</v>
       </c>
     </row>
@@ -9314,23 +11610,23 @@
         <v>197</v>
       </c>
       <c r="I197">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.1574479396432436</v>
       </c>
       <c r="J197">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.90258528434986074</v>
       </c>
       <c r="K197">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>9.7414715650139261</v>
       </c>
       <c r="L197">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>9</v>
       </c>
       <c r="M197" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>9,</v>
       </c>
     </row>
@@ -9339,23 +11635,23 @@
         <v>198</v>
       </c>
       <c r="I198">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.1836278784231586</v>
       </c>
       <c r="J198">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.8910065241883679</v>
       </c>
       <c r="K198">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>10.899347581163211</v>
       </c>
       <c r="L198">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>10</v>
       </c>
       <c r="M198" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>10,</v>
       </c>
     </row>
@@ -9364,23 +11660,23 @@
         <v>199</v>
       </c>
       <c r="I199">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.2098078172030737</v>
       </c>
       <c r="J199">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.87881711266196538</v>
       </c>
       <c r="K199">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>12.118288733803462</v>
       </c>
       <c r="L199">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>12</v>
       </c>
       <c r="M199" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>12,</v>
       </c>
     </row>
@@ -9389,23 +11685,23 @@
         <v>200</v>
       </c>
       <c r="I200">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.2359877559829888</v>
       </c>
       <c r="J200">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.8660254037844386</v>
       </c>
       <c r="K200">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>13.397459621556141</v>
       </c>
       <c r="L200">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>13</v>
       </c>
       <c r="M200" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>13,</v>
       </c>
     </row>
@@ -9414,23 +11710,23 @@
         <v>201</v>
       </c>
       <c r="I201">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.2621676947629039</v>
       </c>
       <c r="J201">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.85264016435409207</v>
       </c>
       <c r="K201">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>14.735983564590795</v>
       </c>
       <c r="L201">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>14</v>
       </c>
       <c r="M201" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>14,</v>
       </c>
     </row>
@@ -9439,23 +11735,23 @@
         <v>202</v>
       </c>
       <c r="I202">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.2883476335428181</v>
       </c>
       <c r="J202">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.83867056794542427</v>
       </c>
       <c r="K202">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>16.132943205457575</v>
       </c>
       <c r="L202">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>16</v>
       </c>
       <c r="M202" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>16,</v>
       </c>
     </row>
@@ -9464,23 +11760,23 @@
         <v>203</v>
       </c>
       <c r="I203">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.3145275723227332</v>
       </c>
       <c r="J203">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.82412618862201581</v>
       </c>
       <c r="K203">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>17.58738113779842</v>
       </c>
       <c r="L203">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>17</v>
       </c>
       <c r="M203" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>17,</v>
       </c>
     </row>
@@ -9489,23 +11785,23 @@
         <v>204</v>
       </c>
       <c r="I204">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.3407075111026483</v>
       </c>
       <c r="J204">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.80901699437494756</v>
       </c>
       <c r="K204">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>19.098300562505244</v>
       </c>
       <c r="L204">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>19</v>
       </c>
       <c r="M204" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>19,</v>
       </c>
     </row>
@@ -9514,23 +11810,23 @@
         <v>205</v>
       </c>
       <c r="I205">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.3668874498825634</v>
       </c>
       <c r="J205">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.79335334029123517</v>
       </c>
       <c r="K205">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>20.664665970876481</v>
       </c>
       <c r="L205">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>20</v>
       </c>
       <c r="M205" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>20,</v>
       </c>
     </row>
@@ -9539,23 +11835,23 @@
         <v>206</v>
       </c>
       <c r="I206">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.3930673886624776</v>
       </c>
       <c r="J206">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.77714596145697135</v>
       </c>
       <c r="K206">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>22.285403854302864</v>
       </c>
       <c r="L206">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>22</v>
       </c>
       <c r="M206" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>22,</v>
       </c>
     </row>
@@ -9564,23 +11860,23 @@
         <v>207</v>
       </c>
       <c r="I207">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.4192473274423936</v>
       </c>
       <c r="J207">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.76040596560003082</v>
       </c>
       <c r="K207">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>23.959403439996919</v>
       </c>
       <c r="L207">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>23</v>
       </c>
       <c r="M207" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>23,</v>
       </c>
     </row>
@@ -9589,23 +11885,23 @@
         <v>208</v>
       </c>
       <c r="I208">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.4454272662223087</v>
       </c>
       <c r="J208">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.74314482547739402</v>
       </c>
       <c r="K208">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>25.685517452260598</v>
       </c>
       <c r="L208">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>25</v>
       </c>
       <c r="M208" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>25,</v>
       </c>
     </row>
@@ -9614,23 +11910,23 @@
         <v>209</v>
       </c>
       <c r="I209">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.4716072050022229</v>
       </c>
       <c r="J209">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.72537437101228786</v>
       </c>
       <c r="K209">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>27.46256289877121</v>
       </c>
       <c r="L209">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>27</v>
       </c>
       <c r="M209" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>27,</v>
       </c>
     </row>
@@ -9639,23 +11935,23 @@
         <v>210</v>
       </c>
       <c r="I210">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.497787143782138</v>
       </c>
       <c r="J210">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.70710678118654768</v>
       </c>
       <c r="K210">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>29.289321881345234</v>
       </c>
       <c r="L210">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>29</v>
       </c>
       <c r="M210" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>29,</v>
       </c>
     </row>
@@ -9664,23 +11960,23 @@
         <v>211</v>
       </c>
       <c r="I211">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.523967082562053</v>
       </c>
       <c r="J211">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.68835457569375402</v>
       </c>
       <c r="K211">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>31.1645424306246</v>
       </c>
       <c r="L211">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>31</v>
       </c>
       <c r="M211" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>31,</v>
       </c>
     </row>
@@ -9689,23 +11985,23 @@
         <v>212</v>
       </c>
       <c r="I212">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.5501470213419672</v>
       </c>
       <c r="J212">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.66913060635885879</v>
       </c>
       <c r="K212">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>33.086939364114123</v>
       </c>
       <c r="L212">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>33</v>
       </c>
       <c r="M212" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>33,</v>
       </c>
     </row>
@@ -9714,23 +12010,23 @@
         <v>213</v>
       </c>
       <c r="I213">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.5763269601218823</v>
       </c>
       <c r="J213">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.64944804833018421</v>
       </c>
       <c r="K213">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>35.055195166981584</v>
       </c>
       <c r="L213">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>35</v>
       </c>
       <c r="M213" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>35,</v>
       </c>
     </row>
@@ -9739,23 +12035,23 @@
         <v>214</v>
       </c>
       <c r="I214">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.6025068989017983</v>
       </c>
       <c r="J214">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.62932039104983717</v>
       </c>
       <c r="K214">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>37.067960895016284</v>
       </c>
       <c r="L214">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>37</v>
       </c>
       <c r="M214" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>37,</v>
       </c>
     </row>
@@ -9764,23 +12060,23 @@
         <v>215</v>
       </c>
       <c r="I215">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.6286868376817125</v>
       </c>
       <c r="J215">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.60876142900872088</v>
       </c>
       <c r="K215">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>39.123857099127918</v>
       </c>
       <c r="L215">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>39</v>
       </c>
       <c r="M215" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>39,</v>
       </c>
     </row>
@@ -9789,23 +12085,23 @@
         <v>216</v>
       </c>
       <c r="I216">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.6548667764616276</v>
       </c>
       <c r="J216">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.58778525229247336</v>
       </c>
       <c r="K216">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>41.221474770752664</v>
       </c>
       <c r="L216">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>41</v>
       </c>
       <c r="M216" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>41,</v>
       </c>
     </row>
@@ -9814,23 +12110,23 @@
         <v>217</v>
       </c>
       <c r="I217">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.6810467152415427</v>
       </c>
       <c r="J217">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.56640623692483294</v>
       </c>
       <c r="K217">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>43.359376307516705</v>
       </c>
       <c r="L217">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>43</v>
       </c>
       <c r="M217" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>43,</v>
       </c>
     </row>
@@ -9839,23 +12135,23 @@
         <v>218</v>
       </c>
       <c r="I218">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.7072266540214578</v>
       </c>
       <c r="J218">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.54463903501502697</v>
       </c>
       <c r="K218">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>45.536096498497301</v>
       </c>
       <c r="L218">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>45</v>
       </c>
       <c r="M218" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>45,</v>
       </c>
     </row>
@@ -9864,23 +12160,23 @@
         <v>219</v>
       </c>
       <c r="I219">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.733406592801372</v>
       </c>
       <c r="J219">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.52249856471594947</v>
       </c>
       <c r="K219">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>47.750143528405054</v>
       </c>
       <c r="L219">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>47</v>
       </c>
       <c r="M219" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>47,</v>
       </c>
     </row>
@@ -9889,23 +12185,23 @@
         <v>220</v>
       </c>
       <c r="I220">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.7595865315812871</v>
       </c>
       <c r="J220">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.50000000000000044</v>
       </c>
       <c r="K220">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>49.999999999999957</v>
       </c>
       <c r="L220">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>50</v>
       </c>
       <c r="M220" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>50,</v>
       </c>
     </row>
@@ -9914,23 +12210,23 @@
         <v>221</v>
       </c>
       <c r="I221">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.7857664703612022</v>
       </c>
       <c r="J221">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.47715876025960874</v>
       </c>
       <c r="K221">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>52.284123974039119</v>
       </c>
       <c r="L221">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>52</v>
       </c>
       <c r="M221" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>52,</v>
       </c>
     </row>
@@ -9939,23 +12235,23 @@
         <v>222</v>
       </c>
       <c r="I222">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.8119464091411173</v>
       </c>
       <c r="J222">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.45399049973954697</v>
       </c>
       <c r="K222">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>54.600950026045304</v>
       </c>
       <c r="L222">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>54</v>
       </c>
       <c r="M222" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>54,</v>
       </c>
     </row>
@@ -9964,23 +12260,23 @@
         <v>223</v>
       </c>
       <c r="I223">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.8381263479210324</v>
       </c>
       <c r="J223">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.43051109680829519</v>
       </c>
       <c r="K223">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>56.948890319170474</v>
       </c>
       <c r="L223">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>56</v>
       </c>
       <c r="M223" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>56,</v>
       </c>
     </row>
@@ -9989,23 +12285,23 @@
         <v>224</v>
       </c>
       <c r="I224">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.8643062867009474</v>
       </c>
       <c r="J224">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.40673664307580015</v>
       </c>
       <c r="K224">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>59.326335692419988</v>
       </c>
       <c r="L224">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>59</v>
       </c>
       <c r="M224" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>59,</v>
       </c>
     </row>
@@ -10014,23 +12310,23 @@
         <v>225</v>
       </c>
       <c r="I225">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.8904862254808616</v>
       </c>
       <c r="J225">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.38268343236509039</v>
       </c>
       <c r="K225">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>61.73165676349096</v>
       </c>
       <c r="L225">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>61</v>
       </c>
       <c r="M225" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>61,</v>
       </c>
     </row>
@@ -10039,23 +12335,23 @@
         <v>226</v>
       </c>
       <c r="I226">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.9166661642607767</v>
       </c>
       <c r="J226">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.35836794954530077</v>
       </c>
       <c r="K226">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>64.163205045469923</v>
       </c>
       <c r="L226">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>64</v>
       </c>
       <c r="M226" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>64,</v>
       </c>
     </row>
@@ -10064,23 +12360,23 @@
         <v>227</v>
       </c>
       <c r="I227">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.9428461030406918</v>
       </c>
       <c r="J227">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.33380685923377129</v>
       </c>
       <c r="K227">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>66.619314076622871</v>
       </c>
       <c r="L227">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>66</v>
       </c>
       <c r="M227" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>66,</v>
       </c>
     </row>
@@ -10089,23 +12385,23 @@
         <v>228</v>
       </c>
       <c r="I228">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.9690260418206069</v>
       </c>
       <c r="J228">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.30901699437494762</v>
       </c>
       <c r="K228">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>69.09830056250523</v>
       </c>
       <c r="L228">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>69</v>
       </c>
       <c r="M228" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>69,</v>
       </c>
     </row>
@@ -10114,23 +12410,23 @@
         <v>229</v>
       </c>
       <c r="I229">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>5.995205980600522</v>
       </c>
       <c r="J229">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.2840153447039227</v>
       </c>
       <c r="K229">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>71.598465529607736</v>
       </c>
       <c r="L229">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>71</v>
       </c>
       <c r="M229" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>71,</v>
       </c>
     </row>
@@ -10139,23 +12435,23 @@
         <v>230</v>
       </c>
       <c r="I230">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>6.0213859193804371</v>
       </c>
       <c r="J230">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.25881904510252068</v>
       </c>
       <c r="K230">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>74.11809548974793</v>
       </c>
       <c r="L230">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>74</v>
       </c>
       <c r="M230" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>74,</v>
       </c>
     </row>
@@ -10164,23 +12460,23 @@
         <v>231</v>
       </c>
       <c r="I231">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>6.0475658581603522</v>
       </c>
       <c r="J231">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.2334453638559052</v>
       </c>
       <c r="K231">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>76.655463614409484</v>
       </c>
       <c r="L231">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>76</v>
       </c>
       <c r="M231" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>76,</v>
       </c>
     </row>
@@ -10189,23 +12485,23 @@
         <v>232</v>
       </c>
       <c r="I232">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>6.0737457969402664</v>
       </c>
       <c r="J232">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.20791169081775987</v>
       </c>
       <c r="K232">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>79.20883091822401</v>
       </c>
       <c r="L232">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>79</v>
       </c>
       <c r="M232" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>79,</v>
       </c>
     </row>
@@ -10214,23 +12510,23 @@
         <v>233</v>
       </c>
       <c r="I233">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>6.0999257357201815</v>
       </c>
       <c r="J233">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.18223552549214783</v>
       </c>
       <c r="K233">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>81.776447450785213</v>
       </c>
       <c r="L233">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>81</v>
       </c>
       <c r="M233" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>81,</v>
       </c>
     </row>
@@ -10239,23 +12535,23 @@
         <v>234</v>
       </c>
       <c r="I234">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>6.1261056745000966</v>
       </c>
       <c r="J234">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.15643446504023112</v>
       </c>
       <c r="K234">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>84.356553495976883</v>
       </c>
       <c r="L234">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>84</v>
       </c>
       <c r="M234" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>84,</v>
       </c>
     </row>
@@ -10264,23 +12560,23 @@
         <v>235</v>
       </c>
       <c r="I235">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>6.1522856132800117</v>
       </c>
       <c r="J235">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.13052619222005168</v>
       </c>
       <c r="K235">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>86.947380777994823</v>
       </c>
       <c r="L235">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>86</v>
       </c>
       <c r="M235" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>86,</v>
       </c>
     </row>
@@ -10289,23 +12585,23 @@
         <v>236</v>
       </c>
       <c r="I236">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>6.1784655520599259</v>
       </c>
       <c r="J236">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-0.1045284632676543</v>
       </c>
       <c r="K236">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>89.547153673234575</v>
       </c>
       <c r="L236">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>89</v>
       </c>
       <c r="M236" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>89,</v>
       </c>
     </row>
@@ -10314,23 +12610,23 @@
         <v>237</v>
       </c>
       <c r="I237">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>6.2046454908398418</v>
       </c>
       <c r="J237">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-7.8459095727844749E-2</v>
       </c>
       <c r="K237">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>92.154090427215522</v>
       </c>
       <c r="L237">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>92</v>
       </c>
       <c r="M237" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>92,</v>
       </c>
     </row>
@@ -10339,23 +12635,23 @@
         <v>238</v>
       </c>
       <c r="I238">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>6.2308254296197569</v>
       </c>
       <c r="J238">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-5.2335956242943481E-2</v>
       </c>
       <c r="K238">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>94.766404375705648</v>
       </c>
       <c r="L238">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>94</v>
       </c>
       <c r="M238" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>94,</v>
       </c>
     </row>
@@ -10364,23 +12660,23 @@
         <v>239</v>
       </c>
       <c r="I239">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>6.2570053683996711</v>
       </c>
       <c r="J239">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-2.6176948307873545E-2</v>
       </c>
       <c r="K239">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>97.382305169212643</v>
       </c>
       <c r="L239">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>97</v>
       </c>
       <c r="M239" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>97,</v>
       </c>
     </row>
@@ -10389,23 +12685,23 @@
         <v>240</v>
       </c>
       <c r="I240">
-        <f t="shared" si="28"/>
+        <f t="shared" si="38"/>
         <v>6.2831853071795862</v>
       </c>
       <c r="J240">
-        <f t="shared" si="29"/>
+        <f t="shared" si="39"/>
         <v>-2.45029690981724E-16</v>
       </c>
       <c r="K240">
-        <f t="shared" si="30"/>
+        <f t="shared" si="40"/>
         <v>99.999999999999972</v>
       </c>
       <c r="L240">
-        <f t="shared" si="31"/>
+        <f t="shared" si="41"/>
         <v>100</v>
       </c>
       <c r="M240" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="42"/>
         <v>100,</v>
       </c>
     </row>
